--- a/data/hotels_by_city/Houston/Houston_shard_29.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_29.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,9 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55720-d319961-Reviews-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Dayton-Hotels-Best-Western-Plus-Dayton-South.h18105.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +142,1287 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r577107194-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>55720</t>
+  </si>
+  <si>
+    <t>319961</t>
+  </si>
+  <si>
+    <t>577107194</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>NIce place</t>
+  </si>
+  <si>
+    <t>We were in Dayton to visit family. Hotel was chosen based on previous reviews. Place had nice room, very comfortable beds, quiet atmosphere, good hot breakfast with several options and friendly staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>We were in Dayton to visit family. Hotel was chosen based on previous reviews. Place had nice room, very comfortable beds, quiet atmosphere, good hot breakfast with several options and friendly staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r565354160-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>565354160</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>An average BestWestern</t>
+  </si>
+  <si>
+    <t>The room was nice and was quite large. The king bed was very comfortable but the queen size hidabed was not very comfortable. The mattress was very thin making it very uncomfortable. The front desk staff was awesome. The restaurant next door is WORTH checking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2018</t>
+  </si>
+  <si>
+    <t>The room was nice and was quite large. The king bed was very comfortable but the queen size hidabed was not very comfortable. The mattress was very thin making it very uncomfortable. The front desk staff was awesome. The restaurant next door is WORTH checking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r562115306-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>562115306</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nice place! Rooms were large and clean...beds were very comfy! Bathroom was a nice size...it was clean but it did have some black mold around bathtub...staff was very friendly! Breakfast was ok...fitness room was good! It was a very quiet hotel...right across from railroad tracks and never heard 1 train in 2 days! I would definitely return!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Nice place! Rooms were large and clean...beds were very comfy! Bathroom was a nice size...it was clean but it did have some black mold around bathtub...staff was very friendly! Breakfast was ok...fitness room was good! It was a very quiet hotel...right across from railroad tracks and never heard 1 train in 2 days! I would definitely return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r534128394-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>534128394</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Professional Service &amp; Appearance</t>
+  </si>
+  <si>
+    <t>The staff was very professional and helpful. The facility is very clean. The staff make sure nothing is missed during the room service experience.  Any concerns are addressed immediately and management follow up to make sure your satisfied. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>The staff was very professional and helpful. The facility is very clean. The staff make sure nothing is missed during the room service experience.  Any concerns are addressed immediately and management follow up to make sure your satisfied. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r530851531-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>530851531</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Our home during Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>Trying to get home during Hurricane Harvey, Dayton, Texas was as far as we could bet because the roads were flooded out in all directions. This hotel came our home for 6 days and 5 nights. I can not say enough nice things about this place and its staff, several of whom were stranded at work and couldn't get home so they had to work for all those days and night straight. Our room as cleans and comfortable and the staff made every effort to see that it stayed that way even under the most adverse of conditions.  After the first morning they ran out of anything that could be cooked for a hot breakfast because supply trucks could not get in to replenish. Nonetheless, they made sure that there was least something there to eat every morning and that there was hot fresh coffee all the time. There is a small guest laundry on site that was most useful.  Most of our fellow refugees made the best of the situation and stayed pretty congenial, however, some people became very testy. The staff handled these situations professionally and with grace. I heartily recommend this hotel for cleanliness, comfort and service. I also want to give a sincere Thank You to all the staff that became our second family.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2017</t>
+  </si>
+  <si>
+    <t>Trying to get home during Hurricane Harvey, Dayton, Texas was as far as we could bet because the roads were flooded out in all directions. This hotel came our home for 6 days and 5 nights. I can not say enough nice things about this place and its staff, several of whom were stranded at work and couldn't get home so they had to work for all those days and night straight. Our room as cleans and comfortable and the staff made every effort to see that it stayed that way even under the most adverse of conditions.  After the first morning they ran out of anything that could be cooked for a hot breakfast because supply trucks could not get in to replenish. Nonetheless, they made sure that there was least something there to eat every morning and that there was hot fresh coffee all the time. There is a small guest laundry on site that was most useful.  Most of our fellow refugees made the best of the situation and stayed pretty congenial, however, some people became very testy. The staff handled these situations professionally and with grace. I heartily recommend this hotel for cleanliness, comfort and service. I also want to give a sincere Thank You to all the staff that became our second family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r520385504-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>520385504</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Amazing Staff</t>
+  </si>
+  <si>
+    <t>I checked my parents into the Best Western during probably one of the worst times in SE Texas - Hurricane Harvey!  Even though the front desk staff were being inundated with displaced evacuees, they smiled at all times and were kind and helpful. I thank them from the bottom of my heart for taking such good care of my elderly parents.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>I checked my parents into the Best Western during probably one of the worst times in SE Texas - Hurricane Harvey!  Even though the front desk staff were being inundated with displaced evacuees, they smiled at all times and were kind and helpful. I thank them from the bottom of my heart for taking such good care of my elderly parents.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r502691577-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>502691577</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Very Good Experience</t>
+  </si>
+  <si>
+    <t>The staff was great &amp; very accommodating to our needs.  The room was fine.  The breakfast was what we expected.  Our group had rented about 14 rooms.  Even though the breakfast closed at 9:00, some of us sat around &amp; visited in the breakfast area.  Some motels want you out of the breakfast area when it is closed.     If we are in the area again, we would stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>The staff was great &amp; very accommodating to our needs.  The room was fine.  The breakfast was what we expected.  Our group had rented about 14 rooms.  Even though the breakfast closed at 9:00, some of us sat around &amp; visited in the breakfast area.  Some motels want you out of the breakfast area when it is closed.     If we are in the area again, we would stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r499306448-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>499306448</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Family Funeral</t>
+  </si>
+  <si>
+    <t>Very impressed with the desk help at the time we checked. She was polite, friendly. My room was very clean and neat. I would highly recommend this hotel to anyone. The employees were extremely courteous and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Very impressed with the desk help at the time we checked. She was polite, friendly. My room was very clean and neat. I would highly recommend this hotel to anyone. The employees were extremely courteous and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r494491595-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>494491595</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Family visits</t>
+  </si>
+  <si>
+    <t>We routinely visit one of our family members who does not travel. We stay at this hotel because of the care and cleanilness we have found. Breakfast offerings are nothing to write about. Rooms are nice. Trains are across the street and didn't bother us. The lobby is nice. Ice machines were broken or that's what signs said. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>We routinely visit one of our family members who does not travel. We stay at this hotel because of the care and cleanilness we have found. Breakfast offerings are nothing to write about. Rooms are nice. Trains are across the street and didn't bother us. The lobby is nice. Ice machines were broken or that's what signs said. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r469020003-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>469020003</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Front desk attitude</t>
+  </si>
+  <si>
+    <t>Did not extend, Checked out and back in, Went up on rate, Made change room. Made attempt to discuss it with desk, Said I needed to contact my company for rate, I told I got  the rate from rewards program, They were ugly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Did not extend, Checked out and back in, Went up on rate, Made change room. Made attempt to discuss it with desk, Said I needed to contact my company for rate, I told I got  the rate from rewards program, They were ugly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r467013840-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>467013840</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Overall experience was awesome</t>
+  </si>
+  <si>
+    <t>Everything was great and met my expectations. I highly recommend staying at the Best Western in Dayton when you are in the area. Great service and breakfast. Thank you for a wonderful stay I will be returning. MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Everything was great and met my expectations. I highly recommend staying at the Best Western in Dayton when you are in the area. Great service and breakfast. Thank you for a wonderful stay I will be returning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r459538180-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>459538180</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Small Town Motel</t>
+  </si>
+  <si>
+    <t>I was visiting family in a very rural small southern Texas town.  According to the internet there were three hotels in the area.  To their credit, Best Western was the only chain with very good reviews.  The other two were seedy at best.    To my surprise the room was very clean and the bed was wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>I was visiting family in a very rural small southern Texas town.  According to the internet there were three hotels in the area.  To their credit, Best Western was the only chain with very good reviews.  The other two were seedy at best.    To my surprise the room was very clean and the bed was wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r448612136-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>448612136</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Super clean and very comfy!</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay immensely. Loved the bed and the clean room! All the employees were very nice and went out of their way to help us. I'd stay here again in a heartbeat. I'm always looking for Best Westerns anywhere I travel. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay immensely. Loved the bed and the clean room! All the employees were very nice and went out of their way to help us. I'd stay here again in a heartbeat. I'm always looking for Best Westerns anywhere I travel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r425031469-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>425031469</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>A great restful night</t>
+  </si>
+  <si>
+    <t>Outside of some typical freeway sounds, a good rest.  Very clean room, helpful staff, and great breakfast.  The bed  was extremely comfortable and the room large with everything I needed to prepare for a conference I was leading the next day.  Highly recommend if you're in this part of Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Outside of some typical freeway sounds, a good rest.  Very clean room, helpful staff, and great breakfast.  The bed  was extremely comfortable and the room large with everything I needed to prepare for a conference I was leading the next day.  Highly recommend if you're in this part of Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r421717914-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>421717914</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Great Stay !!!</t>
+  </si>
+  <si>
+    <t>Spent one night here on business. Good, clean and comfortable room. Nice lobby décor, nice grounds, and nice staff. Will stay here again when in the Dayton area. Hot breakfast was enjoyable. Close to restaurants, pool are is clean, and overall appearance of motel is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Spent one night here on business. Good, clean and comfortable room. Nice lobby décor, nice grounds, and nice staff. Will stay here again when in the Dayton area. Hot breakfast was enjoyable. Close to restaurants, pool are is clean, and overall appearance of motel is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r410323410-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>410323410</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>!!!!!!!!!!! Drivers/ Pilot Cars Stay Far Far Away !!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I stayed here last week, I came back this week, they didnt have a single this week so they charged me more. I told them that I asked for a single and was told that they didnt have any availible. So if I wanted the double it would be more. Like its my falt they didnt have a single. I asked for the same price and they acted like I was asking for them to pull teeth. I will say this to Drivers and Pilot Cars. Stay Far Away unless you want to pay for there lack of ability to care.They dont seem to care about anything but the money, Not the people that stay at there motel, I stay about 200 nights a year and hold a diamond BW card and I have never been treated like this before, I will never stay at this place again and I will tell everyone I work with and know to stay away, they would be better off in a cheeper motel. Atleast they care. I will be contacting BW  to let them know how this place treats there diamond members. I asked the clerk to call a manager I wanted to talk to them, She text them and said that there was nothing they could do. Well I gave them the extra money because I was tired, and It will be the last time. I hope they choke on the 12...I stayed here last week, I came back this week, they didnt have a single this week so they charged me more. I told them that I asked for a single and was told that they didnt have any availible. So if I wanted the double it would be more. Like its my falt they didnt have a single. I asked for the same price and they acted like I was asking for them to pull teeth. I will say this to Drivers and Pilot Cars. Stay Far Away unless you want to pay for there lack of ability to care.They dont seem to care about anything but the money, Not the people that stay at there motel, I stay about 200 nights a year and hold a diamond BW card and I have never been treated like this before, I will never stay at this place again and I will tell everyone I work with and know to stay away, they would be better off in a cheeper motel. Atleast they care. I will be contacting BW  to let them know how this place treats there diamond members. I asked the clerk to call a manager I wanted to talk to them, She text them and said that there was nothing they could do. Well I gave them the extra money because I was tired, and It will be the last time. I hope they choke on the 12 dollars because it will be the last penny they ever get from me. Dont get me wrong this place is clean and updated, but  money isnt all that counts about comfort.I asked to for the manager to call me and I my gess is they got there money so I dont expect to hear from anyone.But thats ok because in the morning they will never see me again.I would rather sleep in my car or a dive motel then ever stay here again. I would probbly get better treatment. So if you want to pay top dollar and get treated like dirt STAY HERE. I never will again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here last week, I came back this week, they didnt have a single this week so they charged me more. I told them that I asked for a single and was told that they didnt have any availible. So if I wanted the double it would be more. Like its my falt they didnt have a single. I asked for the same price and they acted like I was asking for them to pull teeth. I will say this to Drivers and Pilot Cars. Stay Far Away unless you want to pay for there lack of ability to care.They dont seem to care about anything but the money, Not the people that stay at there motel, I stay about 200 nights a year and hold a diamond BW card and I have never been treated like this before, I will never stay at this place again and I will tell everyone I work with and know to stay away, they would be better off in a cheeper motel. Atleast they care. I will be contacting BW  to let them know how this place treats there diamond members. I asked the clerk to call a manager I wanted to talk to them, She text them and said that there was nothing they could do. Well I gave them the extra money because I was tired, and It will be the last time. I hope they choke on the 12...I stayed here last week, I came back this week, they didnt have a single this week so they charged me more. I told them that I asked for a single and was told that they didnt have any availible. So if I wanted the double it would be more. Like its my falt they didnt have a single. I asked for the same price and they acted like I was asking for them to pull teeth. I will say this to Drivers and Pilot Cars. Stay Far Away unless you want to pay for there lack of ability to care.They dont seem to care about anything but the money, Not the people that stay at there motel, I stay about 200 nights a year and hold a diamond BW card and I have never been treated like this before, I will never stay at this place again and I will tell everyone I work with and know to stay away, they would be better off in a cheeper motel. Atleast they care. I will be contacting BW  to let them know how this place treats there diamond members. I asked the clerk to call a manager I wanted to talk to them, She text them and said that there was nothing they could do. Well I gave them the extra money because I was tired, and It will be the last time. I hope they choke on the 12 dollars because it will be the last penny they ever get from me. Dont get me wrong this place is clean and updated, but  money isnt all that counts about comfort.I asked to for the manager to call me and I my gess is they got there money so I dont expect to hear from anyone.But thats ok because in the morning they will never see me again.I would rather sleep in my car or a dive motel then ever stay here again. I would probbly get better treatment. So if you want to pay top dollar and get treated like dirt STAY HERE. I never will again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r397642990-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>397642990</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect for us. </t>
+  </si>
+  <si>
+    <t>The room was clean, quiet, and comfortable. Breakfast was good. I wish that they would extend breakfast until 10. However, The hotel is located well to hop right into town. I would definitely recommend it. The price was worth it. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>The room was clean, quiet, and comfortable. Breakfast was good. I wish that they would extend breakfast until 10. However, The hotel is located well to hop right into town. I would definitely recommend it. The price was worth it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r397781281-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>397781281</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>So enjoyed our stay at Best Western, Dayton, TX.  Friendly staff, clean, modern, comfortable rooms.  I would enjoy staying at this Best Western Hotel again in the future.  Thank you for a very pleasant two-night experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r373576167-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>373576167</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>our stay</t>
+  </si>
+  <si>
+    <t>We really enjoy our stay and the comfort of our room, very clean, quietness and the breakfast was very good. We enjoy the work out room, and the cleanness of the hotel, but I never got a chance to get into the pool because of rain (LOL) but we enjoy our stay and with going to the steak house next door very nice sitting.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>We really enjoy our stay and the comfort of our room, very clean, quietness and the breakfast was very good. We enjoy the work out room, and the cleanness of the hotel, but I never got a chance to get into the pool because of rain (LOL) but we enjoy our stay and with going to the steak house next door very nice sitting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r372960816-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>372960816</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Nice motel</t>
+  </si>
+  <si>
+    <t>All I want in a clean hotel/motel  room is a comfortable bed, comfortable pillows (not too hard; not too soft) &amp; a nice shower with a good water flow. The Best Western in Dayton, TX passed w/flying colors! I would have given 5 stars but when I asked for late check-out @ 1:00 I was told the latest check-out time they could give us was noon (11:00 is regular check-out time). There was a specific reason I asked for a late check-out but was told they could only give us 1 hour later. Sometimes there ARE extenuating circumstances....MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>All I want in a clean hotel/motel  room is a comfortable bed, comfortable pillows (not too hard; not too soft) &amp; a nice shower with a good water flow. The Best Western in Dayton, TX passed w/flying colors! I would have given 5 stars but when I asked for late check-out @ 1:00 I was told the latest check-out time they could give us was noon (11:00 is regular check-out time). There was a specific reason I asked for a late check-out but was told they could only give us 1 hour later. Sometimes there ARE extenuating circumstances....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r371345069-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>371345069</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Best Western, Dayton, Texas</t>
+  </si>
+  <si>
+    <t>The hotel appears to be old and the maintenance is inadequate. Railroad tracks run on the other side of the highway. During the night a train goes by every hour or so. Fortunately the train does not sound it's horn but the rumble is audible. The most disturbing factor was the musty, humid air in my room. This is a maintenance problem caused by not maintaining the AC system. Because this represents a health hazard, this condition is inexcusable. At checkout I notified the desk clerk of my concern. She told me they had no maintenance personnel on staff. I cannot recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>The hotel appears to be old and the maintenance is inadequate. Railroad tracks run on the other side of the highway. During the night a train goes by every hour or so. Fortunately the train does not sound it's horn but the rumble is audible. The most disturbing factor was the musty, humid air in my room. This is a maintenance problem caused by not maintaining the AC system. Because this represents a health hazard, this condition is inexcusable. At checkout I notified the desk clerk of my concern. She told me they had no maintenance personnel on staff. I cannot recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r365018568-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>365018568</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>smelly, bugs overpriced,</t>
+  </si>
+  <si>
+    <t>This best western is ok, nothing else is this small,but busy town. they know it and charge way more than its worth. You would think the owner could spend some of that money on an exterminator, and clean the smelly rooms. There is a train that goes right by, at all hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>This best western is ok, nothing else is this small,but busy town. they know it and charge way more than its worth. You would think the owner could spend some of that money on an exterminator, and clean the smelly rooms. There is a train that goes right by, at all hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r364749919-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>364749919</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Guest Suite</t>
+  </si>
+  <si>
+    <t>I was very Please with the Guest suite ----My daughter and her bridesmaids used this suite to get ready for her Wedding Day----So glad we have this hotel in Dayton and so close to the Church And Reception!!MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2016</t>
+  </si>
+  <si>
+    <t>I was very Please with the Guest suite ----My daughter and her bridesmaids used this suite to get ready for her Wedding Day----So glad we have this hotel in Dayton and so close to the Church And Reception!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r357484850-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>357484850</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>BW is a great place to stay for the price.  Clean, comfy and staff is very friendly and accommodating.  Only draw back is that is located directly across the street from a train track.  It is very loud when the train goes by in the middle of the night.  First night I heard it scared me, but the second night I was so tired, it didn't even faze me when it when by! ") I would stay here again without a doubt.  Breakfast was pretty good and is part of the room rateMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>BW is a great place to stay for the price.  Clean, comfy and staff is very friendly and accommodating.  Only draw back is that is located directly across the street from a train track.  It is very loud when the train goes by in the middle of the night.  First night I heard it scared me, but the second night I was so tired, it didn't even faze me when it when by! ") I would stay here again without a doubt.  Breakfast was pretty good and is part of the room rateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r321290474-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>321290474</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>do not stay here</t>
+  </si>
+  <si>
+    <t>the room was crawling with hundreds of small roaches that appeared day and night. and when i asked to move rooms, the front desk gave me nothing but attitude. if you want a decent night's rest, stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2015</t>
+  </si>
+  <si>
+    <t>the room was crawling with hundreds of small roaches that appeared day and night. and when i asked to move rooms, the front desk gave me nothing but attitude. if you want a decent night's rest, stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r320285452-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>320285452</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Trip</t>
+  </si>
+  <si>
+    <t>This overnight stay was so relaxing. The remodeled rooms were fantastic and all of the staff were very friendly. The breakfast was wonderful with such a wide variety of foods. Wished we could have stayed longer but we will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>This overnight stay was so relaxing. The remodeled rooms were fantastic and all of the staff were very friendly. The breakfast was wonderful with such a wide variety of foods. Wished we could have stayed longer but we will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r313095523-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>313095523</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>hotel for traveling only</t>
+  </si>
+  <si>
+    <t>The service was OK, the non smoking room was clean and spacious. The breakfast is light, the price for a room is too high, I paid almost the same amount when I go in San Antonio at the Drury Plaza (# 1 hotel in this town).The location of this hotel is very close to the highway 90 and the rooms facing the road are noisy. They have a outside pool, I think that hotel  is Ok for a stop for one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>The service was OK, the non smoking room was clean and spacious. The breakfast is light, the price for a room is too high, I paid almost the same amount when I go in San Antonio at the Drury Plaza (# 1 hotel in this town).The location of this hotel is very close to the highway 90 and the rooms facing the road are noisy. They have a outside pool, I think that hotel  is Ok for a stop for one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r280800686-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>280800686</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>My Visit stay with Best Western in Dayton, TX</t>
+  </si>
+  <si>
+    <t>I recommend staying at the Best Western Inn &amp; Suites in Dayton, TX. The office staff were kind and helpful. The rooms were clean and confortable with extra amenities like a microwave oven and refrigerator. As well as a workout room and outside pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>I recommend staying at the Best Western Inn &amp; Suites in Dayton, TX. The office staff were kind and helpful. The rooms were clean and confortable with extra amenities like a microwave oven and refrigerator. As well as a workout room and outside pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r274943386-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>274943386</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Leisure Trip</t>
+  </si>
+  <si>
+    <t>Upon arrival at the Best Western, I was very pleased with the appearance. The check-in was fast &amp; easy with the rooms very nice, clean and smelling fresh. We enjoyed the pool and the continental breakfast was awesome with everything you could imagine. A stressful drive with small children turned into a very nice leisure trip due to the amenities. Thanks Best Western, we enjoyed it!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Upon arrival at the Best Western, I was very pleased with the appearance. The check-in was fast &amp; easy with the rooms very nice, clean and smelling fresh. We enjoyed the pool and the continental breakfast was awesome with everything you could imagine. A stressful drive with small children turned into a very nice leisure trip due to the amenities. Thanks Best Western, we enjoyed it!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r268442218-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>268442218</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Friendly, Clean, &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>This is a very nice, clean &amp; friendly staffed hotel. The bed was very comfortable to us. The breakfast was good and presented nicely. We did not use the internet. We enjoyed our stay. We would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded April 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2015</t>
+  </si>
+  <si>
+    <t>This is a very nice, clean &amp; friendly staffed hotel. The bed was very comfortable to us. The breakfast was good and presented nicely. We did not use the internet. We enjoyed our stay. We would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r252769185-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>252769185</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Small town, big service</t>
+  </si>
+  <si>
+    <t>I love staying at a Best Western when I need a hotel. I have been to some great ones and a couple of not so great. Some small towns usually have some bad hotels. But this Best Western will surprise you. The hotel is clean from the outside to the inside. It has a nice lobby/waiting area with comfortable sofas. The entire staff was kind and helpful (check in, check out and housekeeping). They provided great customer service. My room was clean and the bed was really comfortable. Breakfast was great and had a nice variety. Overall I had a great stay at this hotel in Dayton, Texas.They are currently remodeling, so it should be even better.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>I love staying at a Best Western when I need a hotel. I have been to some great ones and a couple of not so great. Some small towns usually have some bad hotels. But this Best Western will surprise you. The hotel is clean from the outside to the inside. It has a nice lobby/waiting area with comfortable sofas. The entire staff was kind and helpful (check in, check out and housekeeping). They provided great customer service. My room was clean and the bed was really comfortable. Breakfast was great and had a nice variety. Overall I had a great stay at this hotel in Dayton, Texas.They are currently remodeling, so it should be even better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r252536707-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>252536707</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Best Western Dayton, TX</t>
+  </si>
+  <si>
+    <t>Excellent hotel stay for the price! I was very pleased. No complaints here! It was a great location. My husband loved the bed wanted to take it home with us! :) Very convenient to shopping and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel stay for the price! I was very pleased. No complaints here! It was a great location. My husband loved the bed wanted to take it home with us! :) Very convenient to shopping and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r251734767-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>251734767</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Clean Rooms Poor Breakfast</t>
+  </si>
+  <si>
+    <t>Rooms were clean and comfortable.  Breakfast buffet was clean but quality of food was low end.  Eggs appeared frozen and microwaved.  Sausage links were overcooked.  Biscuits were cold.  No gravy.  Price was high compared to most motels of this quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Rooms were clean and comfortable.  Breakfast buffet was clean but quality of food was low end.  Eggs appeared frozen and microwaved.  Sausage links were overcooked.  Biscuits were cold.  No gravy.  Price was high compared to most motels of this quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r243590260-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>243590260</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Clean and Friendly</t>
+  </si>
+  <si>
+    <t>This is very nice and clean and the staff is very nice. the beds are very comfortable. The breakfast  is very good. the only draw back is the trains that run day and night just across the highway. We used earplugs and slept very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>This is very nice and clean and the staff is very nice. the beds are very comfortable. The breakfast  is very good. the only draw back is the trains that run day and night just across the highway. We used earplugs and slept very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r243026085-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>243026085</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>All around, this is the nicest cleanest hotel I stay at in all my travels. the staff is always willing to help in any way they can, and the rooms are always clean and quiet! I stay at this hotel all the time when I fly to Dayton, and I am always happy to see it after a long day of flying.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2014</t>
+  </si>
+  <si>
+    <t>All around, this is the nicest cleanest hotel I stay at in all my travels. the staff is always willing to help in any way they can, and the rooms are always clean and quiet! I stay at this hotel all the time when I fly to Dayton, and I am always happy to see it after a long day of flying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r242438856-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>242438856</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Clean room, nice beds.  Best hotel in town.  Will stay there again.   The continental breakfast was on par with what is usually found at a Best Western. I would recommend to anyone staying in the Dayton area.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Clean room, nice beds.  Best hotel in town.  Will stay there again.   The continental breakfast was on par with what is usually found at a Best Western. I would recommend to anyone staying in the Dayton area.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r234657180-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>234657180</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>This motel is in desperate need of remodeling.  The carpets are old and disgusting - stains everywhere.  I didn't even want to walk barefoot on it.  The room smelled horrible.  The noise from the highway and the train were unbearable.  The satellite TV was skipping and 75% of the channels were affected, even after I called the front desk and they "reset" them.  Two of the lights in the room didn't work.  Breakfast selection was poor and the entire place just seemed dirty.  Bed was uncomfortable and the pillows were just as bad.  This hotel, unfortunately is best of the worst in the area-there aren't many options for other lodging.  I'll gladly stay in another city when I have to travel to Dayton/Liberty again just to NOT stay here.  Worst Best Western I've ever stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2014</t>
+  </si>
+  <si>
+    <t>This motel is in desperate need of remodeling.  The carpets are old and disgusting - stains everywhere.  I didn't even want to walk barefoot on it.  The room smelled horrible.  The noise from the highway and the train were unbearable.  The satellite TV was skipping and 75% of the channels were affected, even after I called the front desk and they "reset" them.  Two of the lights in the room didn't work.  Breakfast selection was poor and the entire place just seemed dirty.  Bed was uncomfortable and the pillows were just as bad.  This hotel, unfortunately is best of the worst in the area-there aren't many options for other lodging.  I'll gladly stay in another city when I have to travel to Dayton/Liberty again just to NOT stay here.  Worst Best Western I've ever stayed at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r232807169-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>232807169</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>pleasant stay</t>
+  </si>
+  <si>
+    <t>Nicely remodeled hotel.  Clean.  Helpful staff gave us early checkin and late checkout.  We stayed over because of a family wedding nearby.  Not real fancy - seems to be used mostly for business -  workers (oil &amp; gas).   Breakfast looks like it might be nice if you got there early enough, but was mostly gone when I arrived at 8:45.   Only serve until 9:00 on both weekends/weekdays.  Trains went  through several times during the night; but I never heard.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Nicely remodeled hotel.  Clean.  Helpful staff gave us early checkin and late checkout.  We stayed over because of a family wedding nearby.  Not real fancy - seems to be used mostly for business -  workers (oil &amp; gas).   Breakfast looks like it might be nice if you got there early enough, but was mostly gone when I arrived at 8:45.   Only serve until 9:00 on both weekends/weekdays.  Trains went  through several times during the night; but I never heard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r221250049-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>221250049</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>a night out</t>
+  </si>
+  <si>
+    <t>The children and I just wanted a night out and to swim. We found this hotel supplied everything we needed and I would recommend it to anyone.We got the king suite and we had plenty of room. The king bed was wonderful and the pull out sofa bed was very comfortable. The pool was relaxing and loved the rock water fall it had.Internet was great and so was the decor.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded August 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2014</t>
+  </si>
+  <si>
+    <t>The children and I just wanted a night out and to swim. We found this hotel supplied everything we needed and I would recommend it to anyone.We got the king suite and we had plenty of room. The king bed was wonderful and the pull out sofa bed was very comfortable. The pool was relaxing and loved the rock water fall it had.Internet was great and so was the decor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r213566308-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>213566308</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>great experience</t>
+  </si>
+  <si>
+    <t>Can't go wrong with this hotel.  The front desk was extremely helpful.  Housekeeping was immaculate.  The room was clean, odorless, great for nonsmokers.  Very peaceful location but conveniently located.  Great value for the money.  Will definitely have a return visit.  Great job to the staff at this Best Western!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded July 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2014</t>
+  </si>
+  <si>
+    <t>Can't go wrong with this hotel.  The front desk was extremely helpful.  Housekeeping was immaculate.  The room was clean, odorless, great for nonsmokers.  Very peaceful location but conveniently located.  Great value for the money.  Will definitely have a return visit.  Great job to the staff at this Best Western!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r213405322-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>213405322</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Customer service was Terrible</t>
+  </si>
+  <si>
+    <t>We received the absolute worst customer service during our 3 day stay.  The staff was extremely unaccommodating and unfriendly.  We received one smile while we stayed from the sweet cleaning lady in the hall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>We received the absolute worst customer service during our 3 day stay.  The staff was extremely unaccommodating and unfriendly.  We received one smile while we stayed from the sweet cleaning lady in the hall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r213112888-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>213112888</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Baseball Parents Beware !!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I would like to write a positive review unfortunately I can not. I never got to stay in the room! We had a baseball tournament in Dayton over the weekend.  On our way we were called by the director of the tournament and told the fields were under water and unplayable.  We were literally on our way to the hotel.  I booked through priceline  when called them they said no problem they would call the hotel to get the funds refunded, no big deal right?  Wrong,so wrong the manager on duty Sam Singh refused. In fact he refused to even come to the phone, which is crazy because Priceline had just spoken to him. I called back a third time to see if I could at least switch to a different day since it was already paid for and I hate wasting$100.00! Nope couldn't even do that. He never bothered to get on the phone. This was all done through a nice young lady, named Gina at the front desk.  He put her in such a bad spot, she would put me on hold and speak to him and then answer me because apparently the manager ON DUTY was "not there". So beware baseball parents or anyone who has a problem Sam Singh is not accommodating to your needs. Just to keep my $100.00 he missed out on getting the business of a whole team!   As we speak he has...I would like to write a positive review unfortunately I can not. I never got to stay in the room! We had a baseball tournament in Dayton over the weekend.  On our way we were called by the director of the tournament and told the fields were under water and unplayable.  We were literally on our way to the hotel.  I booked through priceline  when called them they said no problem they would call the hotel to get the funds refunded, no big deal right?  Wrong,so wrong the manager on duty Sam Singh refused. In fact he refused to even come to the phone, which is crazy because Priceline had just spoken to him. I called back a third time to see if I could at least switch to a different day since it was already paid for and I hate wasting$100.00! Nope couldn't even do that. He never bothered to get on the phone. This was all done through a nice young lady, named Gina at the front desk.  He put her in such a bad spot, she would put me on hold and speak to him and then answer me because apparently the manager ON DUTY was "not there". So beware baseball parents or anyone who has a problem Sam Singh is not accommodating to your needs. Just to keep my $100.00 he missed out on getting the business of a whole team!   As we speak he has yet to answer my voice mail.  We have another tournament this weekend and the team is in need of hotel rooms, but I can promise you it WON'T Be a Best Western!MoreShow less</t>
+  </si>
+  <si>
+    <t>I would like to write a positive review unfortunately I can not. I never got to stay in the room! We had a baseball tournament in Dayton over the weekend.  On our way we were called by the director of the tournament and told the fields were under water and unplayable.  We were literally on our way to the hotel.  I booked through priceline  when called them they said no problem they would call the hotel to get the funds refunded, no big deal right?  Wrong,so wrong the manager on duty Sam Singh refused. In fact he refused to even come to the phone, which is crazy because Priceline had just spoken to him. I called back a third time to see if I could at least switch to a different day since it was already paid for and I hate wasting$100.00! Nope couldn't even do that. He never bothered to get on the phone. This was all done through a nice young lady, named Gina at the front desk.  He put her in such a bad spot, she would put me on hold and speak to him and then answer me because apparently the manager ON DUTY was "not there". So beware baseball parents or anyone who has a problem Sam Singh is not accommodating to your needs. Just to keep my $100.00 he missed out on getting the business of a whole team!   As we speak he has...I would like to write a positive review unfortunately I can not. I never got to stay in the room! We had a baseball tournament in Dayton over the weekend.  On our way we were called by the director of the tournament and told the fields were under water and unplayable.  We were literally on our way to the hotel.  I booked through priceline  when called them they said no problem they would call the hotel to get the funds refunded, no big deal right?  Wrong,so wrong the manager on duty Sam Singh refused. In fact he refused to even come to the phone, which is crazy because Priceline had just spoken to him. I called back a third time to see if I could at least switch to a different day since it was already paid for and I hate wasting$100.00! Nope couldn't even do that. He never bothered to get on the phone. This was all done through a nice young lady, named Gina at the front desk.  He put her in such a bad spot, she would put me on hold and speak to him and then answer me because apparently the manager ON DUTY was "not there". So beware baseball parents or anyone who has a problem Sam Singh is not accommodating to your needs. Just to keep my $100.00 he missed out on getting the business of a whole team!   As we speak he has yet to answer my voice mail.  We have another tournament this weekend and the team is in need of hotel rooms, but I can promise you it WON'T Be a Best Western!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r188637001-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>188637001</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Like hotel and location. I don't know what else I can say.  I already told you  about my visit. We will be back as we stay there because we are headed to Galveston for a cruise and we go on about 4-5 a year. We live in Arkansas and drive down..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2013</t>
+  </si>
+  <si>
+    <t>Like hotel and location. I don't know what else I can say.  I already told you  about my visit. We will be back as we stay there because we are headed to Galveston for a cruise and we go on about 4-5 a year. We live in Arkansas and drive down..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r181333959-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>181333959</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Happy with Best Western</t>
+  </si>
+  <si>
+    <t>I was very please with the room, I was impressed with how clean the room was. I could tell it must be under new management because i have stayed at this hotel a few times and this was the nicest time by far and everything in the room was in working order.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>I was very please with the room, I was impressed with how clean the room was. I could tell it must be under new management because i have stayed at this hotel a few times and this was the nicest time by far and everything in the room was in working order.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r177610435-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>177610435</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Gatorfest</t>
+  </si>
+  <si>
+    <t>next time we will stay in inside rooms because the train was very loud.  If you want houskeeping when they come by at 9am get it or you wont get any at all.  They had some hot hard boiled eggs, sausage and waffles, so the breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Arvinder S, Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2013</t>
+  </si>
+  <si>
+    <t>next time we will stay in inside rooms because the train was very loud.  If you want houskeeping when they come by at 9am get it or you wont get any at all.  They had some hot hard boiled eggs, sausage and waffles, so the breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r159653311-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>159653311</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>No fear of fires</t>
+  </si>
+  <si>
+    <t>This was the fourth or fifth time that I have stayed in this motel.  It is the best in Dayton and the surrounding area.  Always very clean.  Breakfast is very good what  with a waffle machine and lots of cereal, kolaches, fruit and drinks.  Rather disturbing was that the wife and I came in after dinner and she wanted some popcorn.  The microwave would not turn on, so I jiggled the electrical cord and it started popping popcorn.  Then the machine sizzled and caught on fire.  I yanked the plug out and the fire died out.  Called the desk and a lady said they would check it.  This morning when the housekeeping crew came in, we informed them and they immediately called the front desk, but no one came before we checked out.  The girl at the front desk did apologize and knocked off $10 from the bill.  No one seemed excited...and sure didn't move in a hurry.  Hmm....MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This was the fourth or fifth time that I have stayed in this motel.  It is the best in Dayton and the surrounding area.  Always very clean.  Breakfast is very good what  with a waffle machine and lots of cereal, kolaches, fruit and drinks.  Rather disturbing was that the wife and I came in after dinner and she wanted some popcorn.  The microwave would not turn on, so I jiggled the electrical cord and it started popping popcorn.  Then the machine sizzled and caught on fire.  I yanked the plug out and the fire died out.  Called the desk and a lady said they would check it.  This morning when the housekeeping crew came in, we informed them and they immediately called the front desk, but no one came before we checked out.  The girl at the front desk did apologize and knocked off $10 from the bill.  No one seemed excited...and sure didn't move in a hurry.  Hmm....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r154498132-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>154498132</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r154219155-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>154219155</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Best Western in Dayton TX-BEST in this area</t>
+  </si>
+  <si>
+    <t>This is the best in Dayton/Liberty area. Very clean, quiet, nice staff &amp; breakfast. I was SHOCKED to learn that this hotel was 9 yrs old because it is in such good condition.We stayed on family emergency &amp; it was nice to walk into a room with NO PROBLEMS. I will no longer stay at overpriced Hampton.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r99706693-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>99706693</t>
+  </si>
+  <si>
+    <t>03/10/2011</t>
+  </si>
+  <si>
+    <t>Best in area, which isn't saying too much</t>
+  </si>
+  <si>
+    <t>This hotel is allright.  I stayed here a while back to visit family in Dayton.  They didn't have much room so I just got a hotel in the area.  This is really the only hotel in Dayton so I didn't have much of a choice.  The room was serviceable, didnt experience wireless problems like others did.  Breakfast was a bit off.  Until other hotels come to Dayton, I'll stay here.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r83949484-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>83949484</t>
+  </si>
+  <si>
+    <t>10/18/2010</t>
+  </si>
+  <si>
+    <t>Very clean, well-maintained hotel, very helpful staff.  We'll be back.</t>
+  </si>
+  <si>
+    <t>Our room was extremely comfortable and clean.  Also smelled "good", none of those perfumey aromas that some hotels use to mask bad odors, just good clean air.  Bathroom appeared to have been updated recently and was very clean. One of the most comfortable hotel beds I have ever slept in.  Staff was very helpful. Seemed like a well-managed and well-maintained hotel. We will definitely be back next time we're in the area.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r64622740-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>64622740</t>
+  </si>
+  <si>
+    <t>05/18/2010</t>
+  </si>
+  <si>
+    <t>Another nice Best Western</t>
+  </si>
+  <si>
+    <t>I had no complaints about this place, which is fairly new.  I had a big room with fridge and microwave, and the bathroom was nice too.  No wildlife in the room.  My room was at the back, so may have been quieter than the rooms facing the highway, but I ran my A/C all night, so didn't notice either way.  We ate supper next door at the seafood place, which was fine; they are applying for a liquor license.  Breakfast was the usual basic fare, and they could add a few more tables.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1816,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1846,3590 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s">
+        <v>273</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>274</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>275</v>
+      </c>
+      <c r="X28" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" t="s">
+        <v>281</v>
+      </c>
+      <c r="L29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>283</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>284</v>
+      </c>
+      <c r="X29" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>291</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>292</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>293</v>
+      </c>
+      <c r="X30" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>301</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>302</v>
+      </c>
+      <c r="X31" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>310</v>
+      </c>
+      <c r="O32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>311</v>
+      </c>
+      <c r="X32" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+      <c r="J33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
+        <v>318</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>323</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34" t="s">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s">
+        <v>326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>327</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>328</v>
+      </c>
+      <c r="X34" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" t="s">
+        <v>331</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>332</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" t="s">
+        <v>334</v>
+      </c>
+      <c r="L35" t="s">
+        <v>335</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>336</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>337</v>
+      </c>
+      <c r="X35" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" t="s">
+        <v>343</v>
+      </c>
+      <c r="L36" t="s">
+        <v>344</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>345</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>346</v>
+      </c>
+      <c r="X36" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>349</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>350</v>
+      </c>
+      <c r="J37" t="s">
+        <v>351</v>
+      </c>
+      <c r="K37" t="s">
+        <v>352</v>
+      </c>
+      <c r="L37" t="s">
+        <v>353</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>345</v>
+      </c>
+      <c r="O37" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>354</v>
+      </c>
+      <c r="X37" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s">
+        <v>358</v>
+      </c>
+      <c r="J38" t="s">
+        <v>359</v>
+      </c>
+      <c r="K38" t="s">
+        <v>360</v>
+      </c>
+      <c r="L38" t="s">
+        <v>361</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>362</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>363</v>
+      </c>
+      <c r="X38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s">
+        <v>370</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>362</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>371</v>
+      </c>
+      <c r="X39" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>374</v>
+      </c>
+      <c r="G40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>375</v>
+      </c>
+      <c r="J40" t="s">
+        <v>376</v>
+      </c>
+      <c r="K40" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" t="s">
+        <v>378</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>379</v>
+      </c>
+      <c r="O40" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>380</v>
+      </c>
+      <c r="X40" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" t="s">
+        <v>385</v>
+      </c>
+      <c r="K41" t="s">
+        <v>386</v>
+      </c>
+      <c r="L41" t="s">
+        <v>387</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>388</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>389</v>
+      </c>
+      <c r="X41" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" t="s">
+        <v>394</v>
+      </c>
+      <c r="K42" t="s">
+        <v>395</v>
+      </c>
+      <c r="L42" t="s">
+        <v>396</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>388</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>397</v>
+      </c>
+      <c r="X42" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s">
+        <v>400</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s">
+        <v>401</v>
+      </c>
+      <c r="J43" t="s">
+        <v>402</v>
+      </c>
+      <c r="K43" t="s">
+        <v>403</v>
+      </c>
+      <c r="L43" t="s">
+        <v>404</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>388</v>
+      </c>
+      <c r="O43" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>397</v>
+      </c>
+      <c r="X43" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>406</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s">
+        <v>407</v>
+      </c>
+      <c r="J44" t="s">
+        <v>408</v>
+      </c>
+      <c r="K44" t="s">
+        <v>409</v>
+      </c>
+      <c r="L44" t="s">
+        <v>410</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>411</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>412</v>
+      </c>
+      <c r="X44" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s">
+        <v>415</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" t="s">
+        <v>416</v>
+      </c>
+      <c r="J45" t="s">
+        <v>417</v>
+      </c>
+      <c r="K45" t="s">
+        <v>418</v>
+      </c>
+      <c r="L45" t="s">
+        <v>419</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>420</v>
+      </c>
+      <c r="O45" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>421</v>
+      </c>
+      <c r="X45" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>424</v>
+      </c>
+      <c r="G46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
+        <v>425</v>
+      </c>
+      <c r="J46" t="s">
+        <v>426</v>
+      </c>
+      <c r="K46" t="s">
+        <v>427</v>
+      </c>
+      <c r="L46" t="s">
+        <v>428</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>429</v>
+      </c>
+      <c r="O46" t="s">
+        <v>430</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>431</v>
+      </c>
+      <c r="X46" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>434</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>435</v>
+      </c>
+      <c r="J47" t="s">
+        <v>436</v>
+      </c>
+      <c r="K47" t="s">
+        <v>437</v>
+      </c>
+      <c r="L47" t="s">
+        <v>438</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>439</v>
+      </c>
+      <c r="O47" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>442</v>
+      </c>
+      <c r="J48" t="s">
+        <v>443</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>444</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" t="s">
+        <v>446</v>
+      </c>
+      <c r="J49" t="s">
+        <v>447</v>
+      </c>
+      <c r="K49" t="s">
+        <v>448</v>
+      </c>
+      <c r="L49" t="s">
+        <v>449</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>450</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>451</v>
+      </c>
+      <c r="G50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>452</v>
+      </c>
+      <c r="J50" t="s">
+        <v>453</v>
+      </c>
+      <c r="K50" t="s">
+        <v>454</v>
+      </c>
+      <c r="L50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>456</v>
+      </c>
+      <c r="O50" t="s">
+        <v>457</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>458</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>459</v>
+      </c>
+      <c r="J51" t="s">
+        <v>460</v>
+      </c>
+      <c r="K51" t="s">
+        <v>461</v>
+      </c>
+      <c r="L51" t="s">
+        <v>462</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>463</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
+        <v>464</v>
+      </c>
+      <c r="G52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>465</v>
+      </c>
+      <c r="J52" t="s">
+        <v>466</v>
+      </c>
+      <c r="K52" t="s">
+        <v>467</v>
+      </c>
+      <c r="L52" t="s">
+        <v>468</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>456</v>
+      </c>
+      <c r="O52" t="s">
+        <v>430</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_29.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_29.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="763">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -144,18 +144,106 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r613240175-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>55720</t>
+  </si>
+  <si>
+    <t>319961</t>
+  </si>
+  <si>
+    <t>613240175</t>
+  </si>
+  <si>
+    <t>Love the Best Western hotels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have yet to have a bad experience at any of the hotels I ha e staid with thru the years.  Staff, grounds, rooms, food always the best.  If I could afford to move in and live in one of them I would.  Have a restful night next time </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r577869183-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>577869183</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Excellent excellent staff everybody was very nice and the best were really comfortable always AC to access the hotel from the main road I always try to stay here when I can it's just a good hotel that I like to stay atniMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Excellent excellent staff everybody was very nice and the best were really comfortable always AC to access the hotel from the main road I always try to stay here when I can it's just a good hotel that I like to stay atniMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r585039153-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>585039153</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>This Property is  a Dump</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for three nights, from 5-31-2018 to 6-2-2018. I can't remember a worse hotel in my memory.
+The staff is very rude. The young lady at the front desk acts as if her daddy owns the place and she is beyond reproach. After showing me how I had to jimmy my hotel room door to open it, she acted as if she was put out that I found it unacceptable that a hotel room door did not lock and unlock securely. I was SHOCKED at her lack of care for such an important safety issue. 
+Beyond that, this property stinks. My room smelled like dirty laundry. The AC has leaves or something collected in the blower area and when it kicks on it sounds like a train is in the room.
+The toilet seat in this room is so loose that when you sit down on it, you feel as if you are going to fall off the toilet on to the floor. 
+At Check-In, I was not given a rate, only told to refer to "the online company you dealt with." It was as if they are upset that people book rooms online via 3rd party services. She was VERY rude about this.
+I will be back in this area pretty regularly over the coming months and years. I will drive 20 miles to another town in hopes of finding a hotel that is...I recently stayed at this hotel for three nights, from 5-31-2018 to 6-2-2018. I can't remember a worse hotel in my memory.The staff is very rude. The young lady at the front desk acts as if her daddy owns the place and she is beyond reproach. After showing me how I had to jimmy my hotel room door to open it, she acted as if she was put out that I found it unacceptable that a hotel room door did not lock and unlock securely. I was SHOCKED at her lack of care for such an important safety issue. Beyond that, this property stinks. My room smelled like dirty laundry. The AC has leaves or something collected in the blower area and when it kicks on it sounds like a train is in the room.The toilet seat in this room is so loose that when you sit down on it, you feel as if you are going to fall off the toilet on to the floor. At Check-In, I was not given a rate, only told to refer to "the online company you dealt with." It was as if they are upset that people book rooms online via 3rd party services. She was VERY rude about this.I will be back in this area pretty regularly over the coming months and years. I will drive 20 miles to another town in hopes of finding a hotel that is not such a DUMP. Unfortunately, on this trip I did not have an opportunity to find another place to stay. I figured that if they won't fix something as important as a door lock on the room, they would surely not fix anything else, so I endured it and left.Upon my telling the front desk lady that I would contact BW over the door lock issue, she quickly replied that she would be happy to give me the number, so on top of being rude and lazy and not fixing things, staff at this hotel is passive-aggressive as well as rude.This hotel does NOT deserve to display a Best Western sign. BW has higher standards than that and they should investigate this property because it makes them look really, really bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for three nights, from 5-31-2018 to 6-2-2018. I can't remember a worse hotel in my memory.
+The staff is very rude. The young lady at the front desk acts as if her daddy owns the place and she is beyond reproach. After showing me how I had to jimmy my hotel room door to open it, she acted as if she was put out that I found it unacceptable that a hotel room door did not lock and unlock securely. I was SHOCKED at her lack of care for such an important safety issue. 
+Beyond that, this property stinks. My room smelled like dirty laundry. The AC has leaves or something collected in the blower area and when it kicks on it sounds like a train is in the room.
+The toilet seat in this room is so loose that when you sit down on it, you feel as if you are going to fall off the toilet on to the floor. 
+At Check-In, I was not given a rate, only told to refer to "the online company you dealt with." It was as if they are upset that people book rooms online via 3rd party services. She was VERY rude about this.
+I will be back in this area pretty regularly over the coming months and years. I will drive 20 miles to another town in hopes of finding a hotel that is...I recently stayed at this hotel for three nights, from 5-31-2018 to 6-2-2018. I can't remember a worse hotel in my memory.The staff is very rude. The young lady at the front desk acts as if her daddy owns the place and she is beyond reproach. After showing me how I had to jimmy my hotel room door to open it, she acted as if she was put out that I found it unacceptable that a hotel room door did not lock and unlock securely. I was SHOCKED at her lack of care for such an important safety issue. Beyond that, this property stinks. My room smelled like dirty laundry. The AC has leaves or something collected in the blower area and when it kicks on it sounds like a train is in the room.The toilet seat in this room is so loose that when you sit down on it, you feel as if you are going to fall off the toilet on to the floor. At Check-In, I was not given a rate, only told to refer to "the online company you dealt with." It was as if they are upset that people book rooms online via 3rd party services. She was VERY rude about this.I will be back in this area pretty regularly over the coming months and years. I will drive 20 miles to another town in hopes of finding a hotel that is not such a DUMP. Unfortunately, on this trip I did not have an opportunity to find another place to stay. I figured that if they won't fix something as important as a door lock on the room, they would surely not fix anything else, so I endured it and left.Upon my telling the front desk lady that I would contact BW over the door lock issue, she quickly replied that she would be happy to give me the number, so on top of being rude and lazy and not fixing things, staff at this hotel is passive-aggressive as well as rude.This hotel does NOT deserve to display a Best Western sign. BW has higher standards than that and they should investigate this property because it makes them look really, really bad.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r577107194-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
-    <t>55720</t>
-  </si>
-  <si>
-    <t>319961</t>
-  </si>
-  <si>
     <t>577107194</t>
   </si>
   <si>
@@ -171,15 +259,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 5, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 5, 2018</t>
-  </si>
-  <si>
     <t>We were in Dayton to visit family. Hotel was chosen based on previous reviews. Place had nice room, very comfortable beds, quiet atmosphere, good hot breakfast with several options and friendly staff. More</t>
   </si>
   <si>
@@ -228,9 +307,6 @@
     <t>Nice place! Rooms were large and clean...beds were very comfy! Bathroom was a nice size...it was clean but it did have some black mold around bathtub...staff was very friendly! Breakfast was ok...fitness room was good! It was a very quiet hotel...right across from railroad tracks and never heard 1 train in 2 days! I would definitely return!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 24, 2018</t>
   </si>
   <si>
@@ -240,6 +316,57 @@
     <t>Nice place! Rooms were large and clean...beds were very comfy! Bathroom was a nice size...it was clean but it did have some black mold around bathtub...staff was very friendly! Breakfast was ok...fitness room was good! It was a very quiet hotel...right across from railroad tracks and never heard 1 train in 2 days! I would definitely return!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r549647167-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>549647167</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>A Great Night</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and modern. The bed was comfortable. The staff was friendly. Breakfast was hot and fresh. We came to visit relatives and this hotel is definitely on our list of places to stay again in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and modern. The bed was comfortable. The staff was friendly. Breakfast was hot and fresh. We came to visit relatives and this hotel is definitely on our list of places to stay again in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r548076472-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>548076472</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>When you're the only place in town....</t>
+  </si>
+  <si>
+    <t>We've stayed here a couple of times while n Dayton visiting family.  Rooms are clean and well maintained and prices are good.NOISY!!!!  This place is notorious noisy with the train tracks across the street,  big rig trucks running in the back lot, slamming doors and a homeowners freaking loud barking *@^% dogs right next door.Okay cold continental breakfast but don't get your hopes up. MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>We've stayed here a couple of times while n Dayton visiting family.  Rooms are clean and well maintained and prices are good.NOISY!!!!  This place is notorious noisy with the train tracks across the street,  big rig trucks running in the back lot, slamming doors and a homeowners freaking loud barking *@^% dogs right next door.Okay cold continental breakfast but don't get your hopes up. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r534128394-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -321,6 +448,57 @@
     <t>I checked my parents into the Best Western during probably one of the worst times in SE Texas - Hurricane Harvey!  Even though the front desk staff were being inundated with displaced evacuees, they smiled at all times and were kind and helpful. I thank them from the bottom of my heart for taking such good care of my elderly parents.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r516655839-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>516655839</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Nice room and great bed</t>
+  </si>
+  <si>
+    <t>The hotel/room was nice and the bed was great. Unfortunately, they wouldn't give a discount for multiple nights. I ended up in another best western in another town that was about the same  for almost 1/2 price due to multiple night discountsMoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>The hotel/room was nice and the bed was great. Unfortunately, they wouldn't give a discount for multiple nights. I ended up in another best western in another town that was about the same  for almost 1/2 price due to multiple night discountsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r507452178-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>507452178</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Very poor</t>
+  </si>
+  <si>
+    <t>Lots of problems and unfriendly staff! Room was not very clean and smelled and hotel was very hot! Would not recommend to anyone instead go to the best western in Seabrook where they care about their guests and it was extremely overpriced as well MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Lots of problems and unfriendly staff! Room was not very clean and smelled and hotel was very hot! Would not recommend to anyone instead go to the best western in Seabrook where they care about their guests and it was extremely overpriced as well More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r502691577-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -336,9 +514,6 @@
     <t>The staff was great &amp; very accommodating to our needs.  The room was fine.  The breakfast was what we expected.  Our group had rented about 14 rooms.  Even though the breakfast closed at 9:00, some of us sat around &amp; visited in the breakfast area.  Some motels want you out of the breakfast area when it is closed.     If we are in the area again, we would stay there.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded July 18, 2017</t>
   </si>
   <si>
@@ -399,6 +574,60 @@
     <t>We routinely visit one of our family members who does not travel. We stay at this hotel because of the care and cleanilness we have found. Breakfast offerings are nothing to write about. Rooms are nice. Trains are across the street and didn't bother us. The lobby is nice. Ice machines were broken or that's what signs said. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r489426466-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>489426466</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>It's been several years since we've stayed here - lots of improvements!</t>
+  </si>
+  <si>
+    <t>The beds are perfect! Not too soft and not too hard!  I remember the last time we stayed I always felt as if I was beat up - this time - slept like a baby! All of the areas are very clean and the staff was very nice. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>The beds are perfect! Not too soft and not too hard!  I remember the last time we stayed I always felt as if I was beat up - this time - slept like a baby! All of the areas are very clean and the staff was very nice. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r478409230-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>478409230</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t>Very nice hotel.  Would stay there again.  Bed was very comfortable and rooms were clean.  It was a pleasurable stay. I would stay here again if I come to this area.  Good breakfast but needed a few more options.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel.  Would stay there again.  Bed was very comfortable and rooms were clean.  It was a pleasurable stay. I would stay here again if I come to this area.  Good breakfast but needed a few more options.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r469020003-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -477,6 +706,57 @@
     <t>I was visiting family in a very rural small southern Texas town.  According to the internet there were three hotels in the area.  To their credit, Best Western was the only chain with very good reviews.  The other two were seedy at best.    To my surprise the room was very clean and the bed was wonderful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r456174277-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>456174277</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>would stay again</t>
+  </si>
+  <si>
+    <t>The room was nice and clean with good bed. Easy to find on Highway 90. The front desk and management were very kind and easy to work with when we had an issue come up.  Asked for late checkout as we had errand to run and didn't want to drag our bags.  Of course, issues came up and we couldn't make it back in time.  They worked with us regarding our very late departure.  Very nice and very accommodating.  Very much appreciated all they did for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2017</t>
+  </si>
+  <si>
+    <t>The room was nice and clean with good bed. Easy to find on Highway 90. The front desk and management were very kind and easy to work with when we had an issue come up.  Asked for late checkout as we had errand to run and didn't want to drag our bags.  Of course, issues came up and we couldn't make it back in time.  They worked with us regarding our very late departure.  Very nice and very accommodating.  Very much appreciated all they did for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r449904664-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>449904664</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Good hotel with good restaurant next door</t>
+  </si>
+  <si>
+    <t>A good hotel with great caring staff. I stay there whenever I am in the area. They know my voice on the phone, they know my room preferences even my food choices because they take notice and care about their customers. They go the extra mile if you need anything. MoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded January 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2017</t>
+  </si>
+  <si>
+    <t>A good hotel with great caring staff. I stay there whenever I am in the area. They know my voice on the phone, they know my room preferences even my food choices because they take notice and care about their customers. They go the extra mile if you need anything. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r448612136-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -555,6 +835,57 @@
     <t>Spent one night here on business. Good, clean and comfortable room. Nice lobby décor, nice grounds, and nice staff. Will stay here again when in the Dayton area. Hot breakfast was enjoyable. Close to restaurants, pool are is clean, and overall appearance of motel is good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r414802184-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>414802184</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Understated quality</t>
+  </si>
+  <si>
+    <t>I had a good experience at this hotel. Was a little concerned about finding a place in a small community but the hotel was clean and all staff were not only hospitable but professional a helpful. I would highly recommend the facilityMoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>I had a good experience at this hotel. Was a little concerned about finding a place in a small community but the hotel was clean and all staff were not only hospitable but professional a helpful. I would highly recommend the facilityMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r413302933-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>413302933</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Roach Hotel!!!</t>
+  </si>
+  <si>
+    <t>I stay here for work cause there isn't any other place around and this place is loaded with roaches! Big ones too. Sleep with your lights on to keep them under the TV cabinet and bed! YUCK YUCK YUCK! I told them and they moved my room but then they just cleaned the other one and checked someone else in too it. Try to stay in the main building if you can but this place is BAD!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>I stay here for work cause there isn't any other place around and this place is loaded with roaches! Big ones too. Sleep with your lights on to keep them under the TV cabinet and bed! YUCK YUCK YUCK! I told them and they moved my room but then they just cleaned the other one and checked someone else in too it. Try to stay in the main building if you can but this place is BAD!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r410323410-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -570,9 +901,6 @@
     <t>I stayed here last week, I came back this week, they didnt have a single this week so they charged me more. I told them that I asked for a single and was told that they didnt have any availible. So if I wanted the double it would be more. Like its my falt they didnt have a single. I asked for the same price and they acted like I was asking for them to pull teeth. I will say this to Drivers and Pilot Cars. Stay Far Away unless you want to pay for there lack of ability to care.They dont seem to care about anything but the money, Not the people that stay at there motel, I stay about 200 nights a year and hold a diamond BW card and I have never been treated like this before, I will never stay at this place again and I will tell everyone I work with and know to stay away, they would be better off in a cheeper motel. Atleast they care. I will be contacting BW  to let them know how this place treats there diamond members. I asked the clerk to call a manager I wanted to talk to them, She text them and said that there was nothing they could do. Well I gave them the extra money because I was tired, and It will be the last time. I hope they choke on the 12...I stayed here last week, I came back this week, they didnt have a single this week so they charged me more. I told them that I asked for a single and was told that they didnt have any availible. So if I wanted the double it would be more. Like its my falt they didnt have a single. I asked for the same price and they acted like I was asking for them to pull teeth. I will say this to Drivers and Pilot Cars. Stay Far Away unless you want to pay for there lack of ability to care.They dont seem to care about anything but the money, Not the people that stay at there motel, I stay about 200 nights a year and hold a diamond BW card and I have never been treated like this before, I will never stay at this place again and I will tell everyone I work with and know to stay away, they would be better off in a cheeper motel. Atleast they care. I will be contacting BW  to let them know how this place treats there diamond members. I asked the clerk to call a manager I wanted to talk to them, She text them and said that there was nothing they could do. Well I gave them the extra money because I was tired, and It will be the last time. I hope they choke on the 12 dollars because it will be the last penny they ever get from me. Dont get me wrong this place is clean and updated, but  money isnt all that counts about comfort.I asked to for the manager to call me and I my gess is they got there money so I dont expect to hear from anyone.But thats ok because in the morning they will never see me again.I would rather sleep in my car or a dive motel then ever stay here again. I would probbly get better treatment. So if you want to pay top dollar and get treated like dirt STAY HERE. I never will again.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded August 25, 2016</t>
   </si>
   <si>
@@ -621,6 +949,60 @@
     <t>So enjoyed our stay at Best Western, Dayton, TX.  Friendly staff, clean, modern, comfortable rooms.  I would enjoy staying at this Best Western Hotel again in the future.  Thank you for a very pleasant two-night experience.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r385453149-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>385453149</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Hotel stay at Best Western Inn, Dayton, Texas</t>
+  </si>
+  <si>
+    <t>Overall, the exterior of the hotel needed an update as well as the exterior stairway to the second floors.  I could not locate an elevator; therefore, for those customers with physical disabilities, climbing the stairs could pose problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Overall, the exterior of the hotel needed an update as well as the exterior stairway to the second floors.  I could not locate an elevator; therefore, for those customers with physical disabilities, climbing the stairs could pose problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r379244593-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>379244593</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Best Western</t>
+  </si>
+  <si>
+    <t>The staff were very courteous and gracious and went out of their way to accommodate.  The breakfast was good and the room was quiet and perfect for a good nights sleep.  I appreciated my stay at the Best Western and will choose it again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>The staff were very courteous and gracious and went out of their way to accommodate.  The breakfast was good and the room was quiet and perfect for a good nights sleep.  I appreciated my stay at the Best Western and will choose it again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r373576167-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -636,9 +1018,6 @@
     <t>We really enjoy our stay and the comfort of our room, very clean, quietness and the breakfast was very good. We enjoy the work out room, and the cleanness of the hotel, but I never got a chance to get into the pool because of rain (LOL) but we enjoy our stay and with going to the steak house next door very nice sitting.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 18, 2016</t>
   </si>
   <si>
@@ -696,6 +1075,48 @@
     <t>The hotel appears to be old and the maintenance is inadequate. Railroad tracks run on the other side of the highway. During the night a train goes by every hour or so. Fortunately the train does not sound it's horn but the rumble is audible. The most disturbing factor was the musty, humid air in my room. This is a maintenance problem caused by not maintaining the AC system. Because this represents a health hazard, this condition is inexcusable. At checkout I notified the desk clerk of my concern. She told me they had no maintenance personnel on staff. I cannot recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r369427679-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>369427679</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>I recomend this hotel</t>
+  </si>
+  <si>
+    <t>Prices are good,service is great and so are the amenities.We stay here often and I recommend this hotel to anyone. The pool is great too. Rooms are clean ,breakfast is awesome and the free internet works greatMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Prices are good,service is great and so are the amenities.We stay here often and I recommend this hotel to anyone. The pool is great too. Rooms are clean ,breakfast is awesome and the free internet works greatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r369207244-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>369207244</t>
+  </si>
+  <si>
+    <t>Good place to stat</t>
+  </si>
+  <si>
+    <t>For a small town this was a good place to stay. Room was clean, check in staff was friendly and helpful. It appeared the room was recently remodeled. We stayed in an interior room which I recommend. It was quiet. The only complaint was the very bright security light shining directly into the room. The black out shade couldn't block it out. MoreShow less</t>
+  </si>
+  <si>
+    <t>For a small town this was a good place to stay. Room was clean, check in staff was friendly and helpful. It appeared the room was recently remodeled. We stayed in an interior room which I recommend. It was quiet. The only complaint was the very bright security light shining directly into the room. The black out shade couldn't block it out. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r365018568-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -711,9 +1132,6 @@
     <t>This best western is ok, nothing else is this small,but busy town. they know it and charge way more than its worth. You would think the owner could spend some of that money on an exterminator, and clean the smelly rooms. There is a train that goes right by, at all hours.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded April 18, 2016</t>
   </si>
   <si>
@@ -774,6 +1192,60 @@
     <t>BW is a great place to stay for the price.  Clean, comfy and staff is very friendly and accommodating.  Only draw back is that is located directly across the street from a train track.  It is very loud when the train goes by in the middle of the night.  First night I heard it scared me, but the second night I was so tired, it didn't even faze me when it when by! ") I would stay here again without a doubt.  Breakfast was pretty good and is part of the room rateMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r345955973-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>345955973</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Clean Comfortable Room</t>
+  </si>
+  <si>
+    <t>This hotel had clean comfortable rooms and comfortable beds. Stayed here on business. Be sure and request the back due to the train track across the highway. I was on the back and did not hear it. The little restaurant next door was ok, all the food was fried and seemed to be frozen not fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>This hotel had clean comfortable rooms and comfortable beds. Stayed here on business. Be sure and request the back due to the train track across the highway. I was on the back and did not hear it. The little restaurant next door was ok, all the food was fried and seemed to be frozen not fresh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r332203761-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>332203761</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Small Town Wonder</t>
+  </si>
+  <si>
+    <t>Dayton, Texas is a small town.  The Best Western exceeded my expectations!  I was expecting to have to walk up stairs to my room.  There is a new section that is two stories with an elevator and I felt very safe. Yahaira could not have been better!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2015</t>
+  </si>
+  <si>
+    <t>Dayton, Texas is a small town.  The Best Western exceeded my expectations!  I was expecting to have to walk up stairs to my room.  There is a new section that is two stories with an elevator and I felt very safe. Yahaira could not have been better!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r321290474-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -852,6 +1324,60 @@
     <t>The service was OK, the non smoking room was clean and spacious. The breakfast is light, the price for a room is too high, I paid almost the same amount when I go in San Antonio at the Drury Plaza (# 1 hotel in this town).The location of this hotel is very close to the highway 90 and the rooms facing the road are noisy. They have a outside pool, I think that hotel  is Ok for a stop for one night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r305192881-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>305192881</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>My non smoking room reeked of stale smoke. Room was clean and my needs were met. I feel price for room was a bit on the high side for what you get. Thought it was the only hotel available there, will check other one next timeMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>My non smoking room reeked of stale smoke. Room was clean and my needs were met. I feel price for room was a bit on the high side for what you get. Thought it was the only hotel available there, will check other one next timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r294866508-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>294866508</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Best place to stay in Dayton/Liberty area</t>
+  </si>
+  <si>
+    <t>I stayed in a king bed non-smoking room.  My room was spacious and clean.  The staff was friendly and helpful.  The breakfast was OK.  Typical serve yourself stuff.  Sausage and and egg patty were available.  They have a make your own waffle station.  The pool was delightfully cool for such a hot day.  A definite contrast to the bathwater temperature public pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in a king bed non-smoking room.  My room was spacious and clean.  The staff was friendly and helpful.  The breakfast was OK.  Typical serve yourself stuff.  Sausage and and egg patty were available.  They have a make your own waffle station.  The pool was delightfully cool for such a hot day.  A definite contrast to the bathwater temperature public pool.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r280800686-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1459,57 @@
     <t>This is a very nice, clean &amp; friendly staffed hotel. The bed was very comfortable to us. The breakfast was good and presented nicely. We did not use the internet. We enjoyed our stay. We would recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r265785004-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>265785004</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Awful experience with school group</t>
+  </si>
+  <si>
+    <t>While I have used this hotel before, I did not realize how different the rooms are. The suites are decent, but the rest of the hotel is completely sub par. We had 14 rooms, and within these rooms were bugs, massive stains on the bed, no hot water, no shower curtain, strong smoking order (Some students had to move rooms). Definitely not worth the price, and extremely upset to have taken students to this type of environmentMoreShow less</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>While I have used this hotel before, I did not realize how different the rooms are. The suites are decent, but the rest of the hotel is completely sub par. We had 14 rooms, and within these rooms were bugs, massive stains on the bed, no hot water, no shower curtain, strong smoking order (Some students had to move rooms). Definitely not worth the price, and extremely upset to have taken students to this type of environmentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r255008070-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>255008070</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>You must pay for rest!</t>
+  </si>
+  <si>
+    <t>We didn't get in to this hotel until 5 am because my husband had to play with his band the night before in Louisiana.  We were on our way to another performance in Kingwood TX.  We were hoping for a bit of a cut since we only had a few hours until checkout.  The most the attendant would give was 10% off which didn't even cover the taxes.  She did, however, allow us to get breakfast early knowing we wouldn't be awake for the regular breakfast hours.  She also gave us a late checkout of 12 noon.  I just wish this hotel as well as others would prorate their rate for guests who have extremely late hours due to their job.  I hate paying the same amount as someone who has a room over 30 hours.  Thank God for the few hours of rest we did get!  The bed was quite comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>We didn't get in to this hotel until 5 am because my husband had to play with his band the night before in Louisiana.  We were on our way to another performance in Kingwood TX.  We were hoping for a bit of a cut since we only had a few hours until checkout.  The most the attendant would give was 10% off which didn't even cover the taxes.  She did, however, allow us to get breakfast early knowing we wouldn't be awake for the regular breakfast hours.  She also gave us a late checkout of 12 noon.  I just wish this hotel as well as others would prorate their rate for guests who have extremely late hours due to their job.  I hate paying the same amount as someone who has a room over 30 hours.  Thank God for the few hours of rest we did get!  The bed was quite comfortable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r252769185-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -948,9 +1525,6 @@
     <t>I love staying at a Best Western when I need a hotel. I have been to some great ones and a couple of not so great. Some small towns usually have some bad hotels. But this Best Western will surprise you. The hotel is clean from the outside to the inside. It has a nice lobby/waiting area with comfortable sofas. The entire staff was kind and helpful (check in, check out and housekeeping). They provided great customer service. My room was clean and the bed was really comfortable. Breakfast was great and had a nice variety. Overall I had a great stay at this hotel in Dayton, Texas.They are currently remodeling, so it should be even better.MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t>arvinder s, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded February 6, 2015</t>
   </si>
   <si>
@@ -1011,6 +1585,57 @@
     <t>Rooms were clean and comfortable.  Breakfast buffet was clean but quality of food was low end.  Eggs appeared frozen and microwaved.  Sausage links were overcooked.  Biscuits were cold.  No gravy.  Price was high compared to most motels of this quality.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r250444181-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>250444181</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Railfan recommended motel</t>
+  </si>
+  <si>
+    <t>This motel is listed on various sites as ideal for railfans (railroad enthusiasts) who like to watch trains passing by. The busy railroad tracks are on the opposite side of the road and there is a constant procession of trains. This might not appeal to general travellers but it an attraction for railfans who come from around the world.   It is a well run and clean motel. However, the afternoon reception staff, whilst professional, lacked interpersonal and customer service skills so management could benefit from some refresher training in this area. Whilst most customers at the motel would come from the USA, it does not seem unreasonable for staff to understand that people from other English speaking countries may not talk the same way as the locals.  Having said that I found Texans generally extremely friendly and welcoming to someone from the the strange land down under that probably many would not have heard.  The Best Western at Dayton is very good and ideal for railroad enthusiasts wanting to watch (rather than photograph) trains passing by.   Those with no interest in trains could well be advised to ask for a rear facing room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>This motel is listed on various sites as ideal for railfans (railroad enthusiasts) who like to watch trains passing by. The busy railroad tracks are on the opposite side of the road and there is a constant procession of trains. This might not appeal to general travellers but it an attraction for railfans who come from around the world.   It is a well run and clean motel. However, the afternoon reception staff, whilst professional, lacked interpersonal and customer service skills so management could benefit from some refresher training in this area. Whilst most customers at the motel would come from the USA, it does not seem unreasonable for staff to understand that people from other English speaking countries may not talk the same way as the locals.  Having said that I found Texans generally extremely friendly and welcoming to someone from the the strange land down under that probably many would not have heard.  The Best Western at Dayton is very good and ideal for railroad enthusiasts wanting to watch (rather than photograph) trains passing by.   Those with no interest in trains could well be advised to ask for a rear facing room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r245561794-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>245561794</t>
+  </si>
+  <si>
+    <t>12/22/2014</t>
+  </si>
+  <si>
+    <t>Stinky smelly room</t>
+  </si>
+  <si>
+    <t>Wanted a non smoking room...got an old smokers room that was never cleaned.  Musty carpet and the walls still stunk of smoke.  However, there aren't any decent hotels in the Liberty/Dayton area so what are you going to do.  Breakfast was mediocre at best.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Wanted a non smoking room...got an old smokers room that was never cleaned.  Musty carpet and the walls still stunk of smoke.  However, there aren't any decent hotels in the Liberty/Dayton area so what are you going to do.  Breakfast was mediocre at best.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r243590260-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -1026,9 +1651,6 @@
     <t>This is very nice and clean and the staff is very nice. the beds are very comfortable. The breakfast  is very good. the only draw back is the trains that run day and night just across the highway. We used earplugs and slept very good.MoreShow less</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
     <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded December 10, 2014</t>
   </si>
   <si>
@@ -1089,6 +1711,60 @@
     <t>Clean room, nice beds.  Best hotel in town.  Will stay there again.   The continental breakfast was on par with what is usually found at a Best Western. I would recommend to anyone staying in the Dayton area.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r237211868-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>237211868</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Best Western Dayton Inn &amp; Suites, Dayton, Texas</t>
+  </si>
+  <si>
+    <t>My son stayed at the Best Western Dayton Inn &amp; Suites on a Friday night.  The room was clean and the person who checked us in was very helpful.  He wanted to connect his Xbox 360 to the television and we had a problem connecting to the internet.  While the desk clerk was not able to help us with our problem, she did give us a telephone number to call, and that person was able to talk us through getting it hooked up.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded November 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2014</t>
+  </si>
+  <si>
+    <t>My son stayed at the Best Western Dayton Inn &amp; Suites on a Friday night.  The room was clean and the person who checked us in was very helpful.  He wanted to connect his Xbox 360 to the television and we had a problem connecting to the internet.  While the desk clerk was not able to help us with our problem, she did give us a telephone number to call, and that person was able to talk us through getting it hooked up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r236666076-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>236666076</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Very nice room</t>
+  </si>
+  <si>
+    <t>Stayed here for a night and got the king suite it was pretty nice. It had a huge jacuzzi  tub in it with jets. The rest of the rooms was pretty nice as well making it worth the cost of the suite. So i would recommend  that if your in dayton you stay here . Not many places to stay in daytown but this is a good one of the fewMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a night and got the king suite it was pretty nice. It had a huge jacuzzi  tub in it with jets. The rest of the rooms was pretty nice as well making it worth the cost of the suite. So i would recommend  that if your in dayton you stay here . Not many places to stay in daytown but this is a good one of the fewMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r234657180-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -1104,9 +1780,6 @@
     <t>This motel is in desperate need of remodeling.  The carpets are old and disgusting - stains everywhere.  I didn't even want to walk barefoot on it.  The room smelled horrible.  The noise from the highway and the train were unbearable.  The satellite TV was skipping and 75% of the channels were affected, even after I called the front desk and they "reset" them.  Two of the lights in the room didn't work.  Breakfast selection was poor and the entire place just seemed dirty.  Bed was uncomfortable and the pillows were just as bad.  This hotel, unfortunately is best of the worst in the area-there aren't many options for other lodging.  I'll gladly stay in another city when I have to travel to Dayton/Liberty again just to NOT stay here.  Worst Best Western I've ever stayed at.MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded October 16, 2014</t>
   </si>
   <si>
@@ -1167,6 +1840,57 @@
     <t>The children and I just wanted a night out and to swim. We found this hotel supplied everything we needed and I would recommend it to anyone.We got the king suite and we had plenty of room. The king bed was wonderful and the pull out sofa bed was very comfortable. The pool was relaxing and loved the rock water fall it had.Internet was great and so was the decor.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r220359424-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>220359424</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed here last month just for the night. For a small town this was a surprise. The hotel itself is not that old but it is well cared for. We had no problems checking in or with our room. The room was very clean and well furnished. We didn't eat breakfast here but the coffee was very good. Would stay here again. And if this place is booked, try the Executive Inn down the street . It is new and I was told it has the same owners.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here last month just for the night. For a small town this was a surprise. The hotel itself is not that old but it is well cared for. We had no problems checking in or with our room. The room was very clean and well furnished. We didn't eat breakfast here but the coffee was very good. Would stay here again. And if this place is booked, try the Executive Inn down the street . It is new and I was told it has the same owners.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r220126747-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>220126747</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>For True Non Smoking--Rooms Inside</t>
+  </si>
+  <si>
+    <t>We came for a family event,and asked for a non-smoking room, ahead of time. The first room we were assigned was located to the back of the property, 2nd floor, as we had requested. Luckily, the room had not been cleaned for us, so we had to change rooms. I say "luckily", because the rooms located on the outside of the main building that are on the first floor, are smoking rooms. The second floor rooms outside are non-smoking. However, since the cigarette smoke flows upward from those rooms, they might as well call all of the outside rooms "smoking rooms". When we opened the door of the uncleaned first room we were assigned, it reeked of smoke.
+We went back to the desk,and the young ladies there moved us to an "inside room"; the rooms you can only access by walking inside the main building of the hotel. Thank goodness the other room wasn't ready, as the room they gave us was much better for non-smokers.
+The room was large, clean, and had 2 very comfortable beds. The hotel was quiet, and being on the 'back" side of the property kept us from hearing road noise, too. There was also a microwave, and a small fridge that worked well. The bathroom is large, and the shower had great water pressure.
+We only had coffee in the morning, from the buffet,but they did have some hot food, sweet rolls, yogurt,cereals,...We came for a family event,and asked for a non-smoking room, ahead of time. The first room we were assigned was located to the back of the property, 2nd floor, as we had requested. Luckily, the room had not been cleaned for us, so we had to change rooms. I say "luckily", because the rooms located on the outside of the main building that are on the first floor, are smoking rooms. The second floor rooms outside are non-smoking. However, since the cigarette smoke flows upward from those rooms, they might as well call all of the outside rooms "smoking rooms". When we opened the door of the uncleaned first room we were assigned, it reeked of smoke.We went back to the desk,and the young ladies there moved us to an "inside room"; the rooms you can only access by walking inside the main building of the hotel. Thank goodness the other room wasn't ready, as the room they gave us was much better for non-smokers.The room was large, clean, and had 2 very comfortable beds. The hotel was quiet, and being on the 'back" side of the property kept us from hearing road noise, too. There was also a microwave, and a small fridge that worked well. The bathroom is large, and the shower had great water pressure.We only had coffee in the morning, from the buffet,but they did have some hot food, sweet rolls, yogurt,cereals, and an assortment of food. Nothing exciting, but it was included in the reasonable price we paid for the room.The front desk  employees,seemed quite young, but they were also very nice, accommodating, and eager to make our stay pleasant. We would choose the BW Dayton again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came for a family event,and asked for a non-smoking room, ahead of time. The first room we were assigned was located to the back of the property, 2nd floor, as we had requested. Luckily, the room had not been cleaned for us, so we had to change rooms. I say "luckily", because the rooms located on the outside of the main building that are on the first floor, are smoking rooms. The second floor rooms outside are non-smoking. However, since the cigarette smoke flows upward from those rooms, they might as well call all of the outside rooms "smoking rooms". When we opened the door of the uncleaned first room we were assigned, it reeked of smoke.
+We went back to the desk,and the young ladies there moved us to an "inside room"; the rooms you can only access by walking inside the main building of the hotel. Thank goodness the other room wasn't ready, as the room they gave us was much better for non-smokers.
+The room was large, clean, and had 2 very comfortable beds. The hotel was quiet, and being on the 'back" side of the property kept us from hearing road noise, too. There was also a microwave, and a small fridge that worked well. The bathroom is large, and the shower had great water pressure.
+We only had coffee in the morning, from the buffet,but they did have some hot food, sweet rolls, yogurt,cereals,...We came for a family event,and asked for a non-smoking room, ahead of time. The first room we were assigned was located to the back of the property, 2nd floor, as we had requested. Luckily, the room had not been cleaned for us, so we had to change rooms. I say "luckily", because the rooms located on the outside of the main building that are on the first floor, are smoking rooms. The second floor rooms outside are non-smoking. However, since the cigarette smoke flows upward from those rooms, they might as well call all of the outside rooms "smoking rooms". When we opened the door of the uncleaned first room we were assigned, it reeked of smoke.We went back to the desk,and the young ladies there moved us to an "inside room"; the rooms you can only access by walking inside the main building of the hotel. Thank goodness the other room wasn't ready, as the room they gave us was much better for non-smokers.The room was large, clean, and had 2 very comfortable beds. The hotel was quiet, and being on the 'back" side of the property kept us from hearing road noise, too. There was also a microwave, and a small fridge that worked well. The bathroom is large, and the shower had great water pressure.We only had coffee in the morning, from the buffet,but they did have some hot food, sweet rolls, yogurt,cereals, and an assortment of food. Nothing exciting, but it was included in the reasonable price we paid for the room.The front desk  employees,seemed quite young, but they were also very nice, accommodating, and eager to make our stay pleasant. We would choose the BW Dayton again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r213566308-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1960,60 @@
     <t>I would like to write a positive review unfortunately I can not. I never got to stay in the room! We had a baseball tournament in Dayton over the weekend.  On our way we were called by the director of the tournament and told the fields were under water and unplayable.  We were literally on our way to the hotel.  I booked through priceline  when called them they said no problem they would call the hotel to get the funds refunded, no big deal right?  Wrong,so wrong the manager on duty Sam Singh refused. In fact he refused to even come to the phone, which is crazy because Priceline had just spoken to him. I called back a third time to see if I could at least switch to a different day since it was already paid for and I hate wasting$100.00! Nope couldn't even do that. He never bothered to get on the phone. This was all done through a nice young lady, named Gina at the front desk.  He put her in such a bad spot, she would put me on hold and speak to him and then answer me because apparently the manager ON DUTY was "not there". So beware baseball parents or anyone who has a problem Sam Singh is not accommodating to your needs. Just to keep my $100.00 he missed out on getting the business of a whole team!   As we speak he has...I would like to write a positive review unfortunately I can not. I never got to stay in the room! We had a baseball tournament in Dayton over the weekend.  On our way we were called by the director of the tournament and told the fields were under water and unplayable.  We were literally on our way to the hotel.  I booked through priceline  when called them they said no problem they would call the hotel to get the funds refunded, no big deal right?  Wrong,so wrong the manager on duty Sam Singh refused. In fact he refused to even come to the phone, which is crazy because Priceline had just spoken to him. I called back a third time to see if I could at least switch to a different day since it was already paid for and I hate wasting$100.00! Nope couldn't even do that. He never bothered to get on the phone. This was all done through a nice young lady, named Gina at the front desk.  He put her in such a bad spot, she would put me on hold and speak to him and then answer me because apparently the manager ON DUTY was "not there". So beware baseball parents or anyone who has a problem Sam Singh is not accommodating to your needs. Just to keep my $100.00 he missed out on getting the business of a whole team!   As we speak he has yet to answer my voice mail.  We have another tournament this weekend and the team is in need of hotel rooms, but I can promise you it WON'T Be a Best Western!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r206568592-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>206568592</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>4 day stay</t>
+  </si>
+  <si>
+    <t>This hotel was outstanding the staff was excellent and the room was clean and well kept. The front desk personnel were extremely helpful on giving directions to various restaurants in the area. The front desk personal were knowledgeable in giving sightseeing information us. The room was very nice clean and well maintained. Room Service was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded May 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was outstanding the staff was excellent and the room was clean and well kept. The front desk personnel were extremely helpful on giving directions to various restaurants in the area. The front desk personal were knowledgeable in giving sightseeing information us. The room was very nice clean and well maintained. Room Service was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r201138872-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>201138872</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We were in Dayton for a conference. My husband had a meeting so they let me check in early. Everyone was very friendly.  Room was clean and really nice. We stayed on the inside so we did not hear the trains.  We will stay here again if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Arvinder S, General Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded April 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2014</t>
+  </si>
+  <si>
+    <t>We were in Dayton for a conference. My husband had a meeting so they let me check in early. Everyone was very friendly.  Room was clean and really nice. We stayed on the inside so we did not hear the trains.  We will stay here again if we are in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r188637001-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -1308,9 +2086,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Arvinder S, Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 19, 2013</t>
   </si>
   <si>
@@ -1320,6 +2095,57 @@
     <t>next time we will stay in inside rooms because the train was very loud.  If you want houskeeping when they come by at 9am get it or you wont get any at all.  They had some hot hard boiled eggs, sausage and waffles, so the breakfast was good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r175049163-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>175049163</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>Nicest Place in Town</t>
+  </si>
+  <si>
+    <t>We needed  a place to stay in Dayton, TX.  I found the Best Western to be the most appealing.  It was by FAR the nicest property in town.    The staff is friendly and outgoing.  We did have an issue with a musty smelling room at first - but they quickly moved us when we addressed it.  Breakfast the usual - but good .. sausage/eggs/waffles ..   Pool was very pretty and clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Arvinder S, Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded September 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2013</t>
+  </si>
+  <si>
+    <t>We needed  a place to stay in Dayton, TX.  I found the Best Western to be the most appealing.  It was by FAR the nicest property in town.    The staff is friendly and outgoing.  We did have an issue with a musty smelling room at first - but they quickly moved us when we addressed it.  Breakfast the usual - but good .. sausage/eggs/waffles ..   Pool was very pretty and clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r172155854-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>172155854</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Good night's sleep</t>
+  </si>
+  <si>
+    <t>Enjoyed the bed the most.  Wanted a room with a table and chairs to sit and have cup of coffee and conversation.   They did have a comfy chair with ottoman.  I found the room to be very spacious.  There wasn't barely any hot breakfast left at 8:45, so get there early.     The only issue I had was trying to reserve online - it would not let me book online and I tried to get a discount when we got there.   They would not accept my triple A discount request and said they gave us an AARP discount.  We weren't even senior citizens.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arvinder S, Manager at Best Western Dayton Inn &amp; Suites, responded to this reviewResponded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Enjoyed the bed the most.  Wanted a room with a table and chairs to sit and have cup of coffee and conversation.   They did have a comfy chair with ottoman.  I found the room to be very spacious.  There wasn't barely any hot breakfast left at 8:45, so get there early.     The only issue I had was trying to reserve online - it would not let me book online and I tried to get a discount when we got there.   They would not accept my triple A discount request and said they gave us an AARP discount.  We weren't even senior citizens.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r159653311-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +2197,42 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r146658646-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>146658646</t>
+  </si>
+  <si>
+    <t>12/02/2012</t>
+  </si>
+  <si>
+    <t>In town for Thanksgiving</t>
+  </si>
+  <si>
+    <t>I have family in Dayton and we came to town for Thanksgiving. Normally we would stay in Baytown at another hotel but we decided to try yours. We will be back next year. The sleep quality was a little off because you are just across the highway from the railroad tracks but not enough to stop us from coming back.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r102695550-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>102695550</t>
+  </si>
+  <si>
+    <t>04/03/2011</t>
+  </si>
+  <si>
+    <t>The management makes this hotel a shining example of what other "hotels" can only hope to become.</t>
+  </si>
+  <si>
+    <t>My name is Beth Kelso. I recently had the pleasure (?) of staying at the Best Western In Dayton, Tx. Due to circumstances far beyond my control, I was literally stranded in the hotel, alone, for two very long days.  I had no way to get to the airport in Houston, Tx., did not know a soul in  Dayton, and I had very little money and even less hope of getting back to my home in Woodward, Oklahoma. The manager (who will go unnamed because I was losing my sanity by the second and I forgot to write it down), took the time he did not have to help me arrange transportation, get a cold drink, and made sure that I was on my way in time to catch my flight. Best Western should consider themselves EXTREMELY fortunate to have someone this hard-working and compassionate as a representative of their company and I hope that he knows how much his unparalleled effort was appreciated.                                                       Thank you again,                                                                          Katherine Elizabeth KelsoMoreShow less</t>
+  </si>
+  <si>
+    <t>My name is Beth Kelso. I recently had the pleasure (?) of staying at the Best Western In Dayton, Tx. Due to circumstances far beyond my control, I was literally stranded in the hotel, alone, for two very long days.  I had no way to get to the airport in Houston, Tx., did not know a soul in  Dayton, and I had very little money and even less hope of getting back to my home in Woodward, Oklahoma. The manager (who will go unnamed because I was losing my sanity by the second and I forgot to write it down), took the time he did not have to help me arrange transportation, get a cold drink, and made sure that I was on my way in time to catch my flight. Best Western should consider themselves EXTREMELY fortunate to have someone this hard-working and compassionate as a representative of their company and I hope that he knows how much his unparalleled effort was appreciated.                                                       Thank you again,                                                                          Katherine Elizabeth KelsoMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r99706693-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -1389,9 +2251,6 @@
     <t>May 2010</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r83949484-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
   </si>
   <si>
@@ -1423,6 +2282,45 @@
   </si>
   <si>
     <t>I had no complaints about this place, which is fairly new.  I had a big room with fridge and microwave, and the bathroom was nice too.  No wildlife in the room.  My room was at the back, so may have been quieter than the rooms facing the highway, but I ran my A/C all night, so didn't notice either way.  We ate supper next door at the seafood place, which was fine; they are applying for a liquor license.  Breakfast was the usual basic fare, and they could add a few more tables.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r39627246-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>39627246</t>
+  </si>
+  <si>
+    <t>09/02/2009</t>
+  </si>
+  <si>
+    <t>If this is the best in Dayton, stay somewhere else!</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of location, and arrived late due to late flights.  If it had been earlier in the day, I would not have stayed.  I shared my room with 6 dead crickets and 2 dying cockroaches.  The A/C was very cold and there were no extra blankets in the room.  The plumbing is questionable and the breakfast is poor - even for a free continental breakfast.  Never again!  The only thing this hotel has going for it is extremely nice staff.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55720-d319961-r33646274-Best_Western_Dayton_Inn_Suites-Dayton_Texas.html</t>
+  </si>
+  <si>
+    <t>33646274</t>
+  </si>
+  <si>
+    <t>07/01/2009</t>
+  </si>
+  <si>
+    <t>Probably your best bet in the Liberty area</t>
+  </si>
+  <si>
+    <t>Positive:Fairly new hotel in the Liberty/Dayton TX area.  After spending over a week in the area, it seems as if it is probably the best place.Staff was very helpful and friendly.Bed was comfortable.Internet access was free and fairly fast speed.It is right on highway 90, so easy access to Houston.Very clean bathroom with new fixtures.The restaurant next door has some pretty good seafood, but didn't serve alcohol.Negative:If you had a room that had an outward facing door, you couldn't get wireless and had to be attached to the desk via a very short ethernet cord provided by the hotel.The rooms can get quite noisy given the proximity to a busy rail line and the highway.I had to keep the AC cranked, because if the room got at all warm it would start to stink (almost like a smoking room that had been converted to a non-smoking room).The pool was in a strange location (RIGHT next to the parking lot and hotel entrance outside) which made swimming not so pleasant.The breakfast was not good; seemed subpar for even a free continental breakfast.  Cereal was stale.The computer for printing didn't work, but thankfully one of the nice desk staff let me use her laptop for printing.The treadmill didn't work half the time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Positive:Fairly new hotel in the Liberty/Dayton TX area.  After spending over a week in the area, it seems as if it is probably the best place.Staff was very helpful and friendly.Bed was comfortable.Internet access was free and fairly fast speed.It is right on highway 90, so easy access to Houston.Very clean bathroom with new fixtures.The restaurant next door has some pretty good seafood, but didn't serve alcohol.Negative:If you had a room that had an outward facing door, you couldn't get wireless and had to be attached to the desk via a very short ethernet cord provided by the hotel.The rooms can get quite noisy given the proximity to a busy rail line and the highway.I had to keep the AC cranked, because if the room got at all warm it would start to stink (almost like a smoking room that had been converted to a non-smoking room).The pool was in a strange location (RIGHT next to the parking lot and hotel entrance outside) which made swimming not so pleasant.The breakfast was not good; seemed subpar for even a free continental breakfast.  Cereal was stale.The computer for printing didn't work, but thankfully one of the nice desk staff let me use her laptop for printing.The treadmill didn't work half the time.More</t>
   </si>
 </sst>
 </file>
@@ -1946,22 +2844,22 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1982,14 +2880,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" t="s">
-        <v>53</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2005,7 +2899,7 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
@@ -2014,43 +2908,53 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2066,7 +2970,7 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -2075,43 +2979,49 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -2127,7 +3037,7 @@
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -2136,28 +3046,28 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
@@ -2176,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2198,7 +3108,7 @@
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -2207,49 +3117,43 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2265,7 +3169,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -2274,53 +3178,43 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -2336,7 +3230,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -2345,31 +3239,31 @@
         <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
         <v>5</v>
@@ -2385,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -2407,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -2416,53 +3310,43 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -2478,7 +3362,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
         <v>44</v>
@@ -2487,25 +3371,25 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2514,7 +3398,7 @@
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -2527,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -2549,7 +3433,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -2558,53 +3442,49 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2620,7 +3500,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -2629,37 +3509,37 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
         <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2669,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -2691,7 +3571,7 @@
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
         <v>44</v>
@@ -2700,53 +3580,53 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -2762,7 +3642,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -2771,53 +3651,53 @@
         <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -2833,7 +3713,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
@@ -2842,49 +3722,53 @@
         <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="n">
         <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -2900,7 +3784,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
         <v>44</v>
@@ -2909,25 +3793,25 @@
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2949,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -2971,7 +3855,7 @@
         <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
         <v>44</v>
@@ -2980,47 +3864,53 @@
         <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -3036,7 +3926,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -3045,43 +3935,49 @@
         <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -3097,7 +3993,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -3106,25 +4002,25 @@
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3145,10 +4041,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
@@ -3164,7 +4064,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -3173,53 +4073,53 @@
         <v>45</v>
       </c>
       <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
         <v>202</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>203</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>204</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>205</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>206</v>
-      </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
         <v>207</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>208</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +4135,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -3244,43 +4144,53 @@
         <v>45</v>
       </c>
       <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
         <v>211</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>212</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>213</v>
       </c>
-      <c r="L21" t="s">
-        <v>214</v>
-      </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
+        <v>214</v>
+      </c>
+      <c r="X21" t="s">
         <v>215</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>216</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -3296,7 +4206,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
         <v>44</v>
@@ -3305,41 +4215,41 @@
         <v>45</v>
       </c>
       <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
         <v>219</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>220</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>221</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>222</v>
       </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>206</v>
-      </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
         <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3388,29 +4298,23 @@
         <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
         <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3459,25 +4363,25 @@
         <v>239</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
         <v>231</v>
       </c>
       <c r="O24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3536,7 +4440,7 @@
         <v>248</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3545,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3601,29 +4505,25 @@
         <v>256</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
         <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3678,7 +4578,7 @@
         <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3743,35 +4643,41 @@
         <v>273</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
       <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
         <v>275</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>276</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="29">
@@ -3787,7 +4693,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -3796,53 +4702,47 @@
         <v>45</v>
       </c>
       <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
         <v>279</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>280</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>281</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>282</v>
       </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>283</v>
-      </c>
       <c r="O29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
         <v>284</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>285</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="30">
@@ -3858,7 +4758,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
         <v>44</v>
@@ -3867,53 +4767,47 @@
         <v>45</v>
       </c>
       <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
         <v>288</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>289</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>290</v>
       </c>
-      <c r="L30" t="s">
-        <v>291</v>
-      </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30" t="n">
+        <v>57</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
+        <v>291</v>
+      </c>
+      <c r="X30" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y30" t="s">
         <v>293</v>
-      </c>
-      <c r="X30" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="31">
@@ -3929,7 +4823,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3938,53 +4832,43 @@
         <v>45</v>
       </c>
       <c r="I31" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
         <v>297</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>298</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>299</v>
       </c>
-      <c r="L31" t="s">
-        <v>300</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>301</v>
-      </c>
       <c r="O31" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y31" t="s">
         <v>302</v>
-      </c>
-      <c r="X31" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="32">
@@ -4000,7 +4884,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -4009,29 +4893,35 @@
         <v>45</v>
       </c>
       <c r="I32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>305</v>
+      </c>
+      <c r="L32" t="s">
         <v>306</v>
       </c>
-      <c r="J32" t="s">
-        <v>307</v>
-      </c>
-      <c r="K32" t="s">
-        <v>308</v>
-      </c>
-      <c r="L32" t="s">
-        <v>309</v>
-      </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s">
-        <v>51</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="n">
         <v>5</v>
       </c>
@@ -4042,14 +4932,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>311</v>
-      </c>
-      <c r="X32" t="s">
-        <v>312</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33">
@@ -4065,7 +4951,7 @@
         <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G33" t="s">
         <v>44</v>
@@ -4074,53 +4960,53 @@
         <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J33" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
@@ -4136,7 +5022,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -4145,53 +5031,53 @@
         <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K34" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
@@ -4207,7 +5093,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
@@ -4216,34 +5102,34 @@
         <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K35" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="O35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4256,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="X35" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Y35" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36">
@@ -4278,7 +5164,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
@@ -4287,53 +5173,43 @@
         <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="X36" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Y36" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
@@ -4349,7 +5225,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -4358,53 +5234,53 @@
         <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="J37" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K37" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="X37" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Y37" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38">
@@ -4420,7 +5296,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -4429,53 +5305,53 @@
         <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="X38" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Y38" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39">
@@ -4491,7 +5367,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -4500,53 +5376,43 @@
         <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J39" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L39" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="X39" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="Y39" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40">
@@ -4562,7 +5428,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -4571,53 +5437,53 @@
         <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="J40" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K40" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="O40" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="X40" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="Y40" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
@@ -4633,7 +5499,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
         <v>44</v>
@@ -4642,25 +5508,25 @@
         <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4682,13 +5548,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="X41" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="Y41" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
@@ -4704,7 +5570,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4713,53 +5579,53 @@
         <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
         <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="X42" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="Y42" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
@@ -4775,7 +5641,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G43" t="s">
         <v>44</v>
@@ -4784,25 +5650,25 @@
         <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J43" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4814,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="X43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Y43" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
@@ -4836,7 +5702,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4845,25 +5711,25 @@
         <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4885,13 +5751,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="X44" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="Y44" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45">
@@ -4907,7 +5773,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -4916,53 +5782,53 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="J45" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="O45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="X45" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="Y45" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46">
@@ -4978,7 +5844,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G46" t="s">
         <v>44</v>
@@ -4987,25 +5853,25 @@
         <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="J46" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="K46" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="O46" t="s">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5027,13 +5893,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="X46" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="Y46" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
@@ -5049,7 +5915,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G47" t="s">
         <v>44</v>
@@ -5058,49 +5924,47 @@
         <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="J47" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="K47" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="O47" t="s">
-        <v>51</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>429</v>
+      </c>
+      <c r="X47" t="s">
+        <v>430</v>
+      </c>
       <c r="Y47" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48">
@@ -5116,7 +5980,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G48" t="s">
         <v>44</v>
@@ -5125,44 +5989,54 @@
         <v>45</v>
       </c>
       <c r="I48" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="J48" t="s">
-        <v>443</v>
-      </c>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
+        <v>434</v>
+      </c>
+      <c r="K48" t="s">
+        <v>435</v>
+      </c>
+      <c r="L48" t="s">
+        <v>436</v>
+      </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="O48" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
+      <c r="W48" t="s">
+        <v>438</v>
+      </c>
+      <c r="X48" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5177,7 +6051,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -5186,25 +6060,25 @@
         <v>45</v>
       </c>
       <c r="I49" t="s">
+        <v>442</v>
+      </c>
+      <c r="J49" t="s">
+        <v>443</v>
+      </c>
+      <c r="K49" t="s">
+        <v>444</v>
+      </c>
+      <c r="L49" t="s">
+        <v>445</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
         <v>446</v>
       </c>
-      <c r="J49" t="s">
-        <v>447</v>
-      </c>
-      <c r="K49" t="s">
-        <v>448</v>
-      </c>
-      <c r="L49" t="s">
-        <v>449</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>450</v>
-      </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5213,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5225,8 +6099,12 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>447</v>
+      </c>
+      <c r="X49" t="s">
+        <v>448</v>
+      </c>
       <c r="Y49" t="s">
         <v>449</v>
       </c>
@@ -5244,7 +6122,7 @@
         <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -5253,49 +6131,53 @@
         <v>45</v>
       </c>
       <c r="I50" t="s">
+        <v>451</v>
+      </c>
+      <c r="J50" t="s">
         <v>452</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>453</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>454</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
         <v>455</v>
       </c>
-      <c r="M50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" t="s">
-        <v>456</v>
-      </c>
       <c r="O50" t="s">
-        <v>457</v>
+        <v>57</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>456</v>
+      </c>
+      <c r="X50" t="s">
+        <v>457</v>
+      </c>
       <c r="Y50" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51">
@@ -5311,7 +6193,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G51" t="s">
         <v>44</v>
@@ -5320,34 +6202,34 @@
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J51" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K51" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L51" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5359,10 +6241,14 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>465</v>
+      </c>
+      <c r="X51" t="s">
+        <v>466</v>
+      </c>
       <c r="Y51" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52">
@@ -5378,7 +6264,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G52" t="s">
         <v>44</v>
@@ -5387,49 +6273,2570 @@
         <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J52" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K52" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="O52" t="s">
-        <v>430</v>
+        <v>57</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
         <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>474</v>
+      </c>
+      <c r="X52" t="s">
+        <v>475</v>
+      </c>
       <c r="Y52" t="s">
-        <v>468</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>477</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s">
+        <v>478</v>
+      </c>
+      <c r="J53" t="s">
+        <v>479</v>
+      </c>
+      <c r="K53" t="s">
+        <v>480</v>
+      </c>
+      <c r="L53" t="s">
+        <v>481</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>473</v>
+      </c>
+      <c r="O53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>482</v>
+      </c>
+      <c r="X53" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s">
+        <v>486</v>
+      </c>
+      <c r="J54" t="s">
+        <v>487</v>
+      </c>
+      <c r="K54" t="s">
+        <v>488</v>
+      </c>
+      <c r="L54" t="s">
+        <v>489</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>490</v>
+      </c>
+      <c r="O54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>491</v>
+      </c>
+      <c r="X54" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>494</v>
+      </c>
+      <c r="G55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>495</v>
+      </c>
+      <c r="J55" t="s">
+        <v>496</v>
+      </c>
+      <c r="K55" t="s">
+        <v>497</v>
+      </c>
+      <c r="L55" t="s">
+        <v>498</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>490</v>
+      </c>
+      <c r="O55" t="s">
+        <v>50</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>499</v>
+      </c>
+      <c r="X55" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>502</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>503</v>
+      </c>
+      <c r="J56" t="s">
+        <v>504</v>
+      </c>
+      <c r="K56" t="s">
+        <v>505</v>
+      </c>
+      <c r="L56" t="s">
+        <v>506</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>490</v>
+      </c>
+      <c r="O56" t="s">
+        <v>50</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>507</v>
+      </c>
+      <c r="X56" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>510</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s">
+        <v>511</v>
+      </c>
+      <c r="J57" t="s">
+        <v>512</v>
+      </c>
+      <c r="K57" t="s">
+        <v>513</v>
+      </c>
+      <c r="L57" t="s">
+        <v>514</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>515</v>
+      </c>
+      <c r="O57" t="s">
+        <v>57</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>516</v>
+      </c>
+      <c r="X57" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>519</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
+        <v>520</v>
+      </c>
+      <c r="J58" t="s">
+        <v>521</v>
+      </c>
+      <c r="K58" t="s">
+        <v>522</v>
+      </c>
+      <c r="L58" t="s">
+        <v>523</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>515</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>524</v>
+      </c>
+      <c r="X58" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s">
+        <v>527</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>528</v>
+      </c>
+      <c r="J59" t="s">
+        <v>529</v>
+      </c>
+      <c r="K59" t="s">
+        <v>530</v>
+      </c>
+      <c r="L59" t="s">
+        <v>531</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>532</v>
+      </c>
+      <c r="O59" t="s">
+        <v>50</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>533</v>
+      </c>
+      <c r="X59" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s">
+        <v>536</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>537</v>
+      </c>
+      <c r="J60" t="s">
+        <v>538</v>
+      </c>
+      <c r="K60" t="s">
+        <v>539</v>
+      </c>
+      <c r="L60" t="s">
+        <v>540</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>532</v>
+      </c>
+      <c r="O60" t="s">
+        <v>50</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>541</v>
+      </c>
+      <c r="X60" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>544</v>
+      </c>
+      <c r="G61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s">
+        <v>545</v>
+      </c>
+      <c r="J61" t="s">
+        <v>546</v>
+      </c>
+      <c r="K61" t="s">
+        <v>547</v>
+      </c>
+      <c r="L61" t="s">
+        <v>548</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>549</v>
+      </c>
+      <c r="O61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>550</v>
+      </c>
+      <c r="X61" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s">
+        <v>553</v>
+      </c>
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s">
+        <v>554</v>
+      </c>
+      <c r="J62" t="s">
+        <v>555</v>
+      </c>
+      <c r="K62" t="s">
+        <v>556</v>
+      </c>
+      <c r="L62" t="s">
+        <v>557</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>549</v>
+      </c>
+      <c r="O62" t="s">
+        <v>50</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>558</v>
+      </c>
+      <c r="X62" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s">
+        <v>561</v>
+      </c>
+      <c r="G63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s">
+        <v>562</v>
+      </c>
+      <c r="J63" t="s">
+        <v>563</v>
+      </c>
+      <c r="K63" t="s">
+        <v>564</v>
+      </c>
+      <c r="L63" t="s">
+        <v>565</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>566</v>
+      </c>
+      <c r="O63" t="s">
+        <v>67</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>567</v>
+      </c>
+      <c r="X63" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s">
+        <v>570</v>
+      </c>
+      <c r="G64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s">
+        <v>571</v>
+      </c>
+      <c r="J64" t="s">
+        <v>572</v>
+      </c>
+      <c r="K64" t="s">
+        <v>573</v>
+      </c>
+      <c r="L64" t="s">
+        <v>574</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>566</v>
+      </c>
+      <c r="O64" t="s">
+        <v>575</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>576</v>
+      </c>
+      <c r="X64" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s">
+        <v>579</v>
+      </c>
+      <c r="G65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s">
+        <v>580</v>
+      </c>
+      <c r="J65" t="s">
+        <v>581</v>
+      </c>
+      <c r="K65" t="s">
+        <v>582</v>
+      </c>
+      <c r="L65" t="s">
+        <v>583</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>566</v>
+      </c>
+      <c r="O65" t="s">
+        <v>57</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>584</v>
+      </c>
+      <c r="X65" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s">
+        <v>587</v>
+      </c>
+      <c r="G66" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s">
+        <v>588</v>
+      </c>
+      <c r="J66" t="s">
+        <v>589</v>
+      </c>
+      <c r="K66" t="s">
+        <v>590</v>
+      </c>
+      <c r="L66" t="s">
+        <v>591</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>566</v>
+      </c>
+      <c r="O66" t="s">
+        <v>84</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>592</v>
+      </c>
+      <c r="X66" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
+        <v>595</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s">
+        <v>596</v>
+      </c>
+      <c r="J67" t="s">
+        <v>597</v>
+      </c>
+      <c r="K67" t="s">
+        <v>598</v>
+      </c>
+      <c r="L67" t="s">
+        <v>599</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>600</v>
+      </c>
+      <c r="O67" t="s">
+        <v>50</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>601</v>
+      </c>
+      <c r="X67" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" t="s">
+        <v>604</v>
+      </c>
+      <c r="G68" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s">
+        <v>605</v>
+      </c>
+      <c r="J68" t="s">
+        <v>606</v>
+      </c>
+      <c r="K68" t="s">
+        <v>607</v>
+      </c>
+      <c r="L68" t="s">
+        <v>608</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>609</v>
+      </c>
+      <c r="O68" t="s">
+        <v>50</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>610</v>
+      </c>
+      <c r="X68" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s">
+        <v>613</v>
+      </c>
+      <c r="G69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s">
+        <v>614</v>
+      </c>
+      <c r="J69" t="s">
+        <v>615</v>
+      </c>
+      <c r="K69" t="s">
+        <v>616</v>
+      </c>
+      <c r="L69" t="s">
+        <v>617</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>600</v>
+      </c>
+      <c r="O69" t="s">
+        <v>575</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>610</v>
+      </c>
+      <c r="X69" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s">
+        <v>619</v>
+      </c>
+      <c r="G70" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s">
+        <v>620</v>
+      </c>
+      <c r="J70" t="s">
+        <v>621</v>
+      </c>
+      <c r="K70" t="s">
+        <v>622</v>
+      </c>
+      <c r="L70" t="s">
+        <v>623</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>624</v>
+      </c>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>625</v>
+      </c>
+      <c r="X70" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s">
+        <v>628</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s">
+        <v>629</v>
+      </c>
+      <c r="J71" t="s">
+        <v>630</v>
+      </c>
+      <c r="K71" t="s">
+        <v>631</v>
+      </c>
+      <c r="L71" t="s">
+        <v>632</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>624</v>
+      </c>
+      <c r="O71" t="s">
+        <v>50</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>633</v>
+      </c>
+      <c r="X71" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s">
+        <v>636</v>
+      </c>
+      <c r="G72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s">
+        <v>637</v>
+      </c>
+      <c r="J72" t="s">
+        <v>638</v>
+      </c>
+      <c r="K72" t="s">
+        <v>639</v>
+      </c>
+      <c r="L72" t="s">
+        <v>640</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>624</v>
+      </c>
+      <c r="O72" t="s">
+        <v>50</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>633</v>
+      </c>
+      <c r="X72" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s">
+        <v>642</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s">
+        <v>643</v>
+      </c>
+      <c r="J73" t="s">
+        <v>644</v>
+      </c>
+      <c r="K73" t="s">
+        <v>645</v>
+      </c>
+      <c r="L73" t="s">
+        <v>646</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>647</v>
+      </c>
+      <c r="O73" t="s">
+        <v>57</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>648</v>
+      </c>
+      <c r="X73" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s">
+        <v>651</v>
+      </c>
+      <c r="G74" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s">
+        <v>652</v>
+      </c>
+      <c r="J74" t="s">
+        <v>653</v>
+      </c>
+      <c r="K74" t="s">
+        <v>654</v>
+      </c>
+      <c r="L74" t="s">
+        <v>655</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>656</v>
+      </c>
+      <c r="O74" t="s">
+        <v>57</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>657</v>
+      </c>
+      <c r="X74" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s">
+        <v>660</v>
+      </c>
+      <c r="G75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s">
+        <v>661</v>
+      </c>
+      <c r="J75" t="s">
+        <v>662</v>
+      </c>
+      <c r="K75" t="s">
+        <v>663</v>
+      </c>
+      <c r="L75" t="s">
+        <v>664</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>665</v>
+      </c>
+      <c r="O75" t="s">
+        <v>84</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>666</v>
+      </c>
+      <c r="X75" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s">
+        <v>669</v>
+      </c>
+      <c r="G76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s">
+        <v>670</v>
+      </c>
+      <c r="J76" t="s">
+        <v>671</v>
+      </c>
+      <c r="K76" t="s">
+        <v>672</v>
+      </c>
+      <c r="L76" t="s">
+        <v>673</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>674</v>
+      </c>
+      <c r="O76" t="s">
+        <v>50</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>675</v>
+      </c>
+      <c r="X76" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s">
+        <v>678</v>
+      </c>
+      <c r="G77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s">
+        <v>679</v>
+      </c>
+      <c r="J77" t="s">
+        <v>680</v>
+      </c>
+      <c r="K77" t="s">
+        <v>681</v>
+      </c>
+      <c r="L77" t="s">
+        <v>682</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>683</v>
+      </c>
+      <c r="O77" t="s">
+        <v>575</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>684</v>
+      </c>
+      <c r="X77" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s">
+        <v>687</v>
+      </c>
+      <c r="G78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s">
+        <v>688</v>
+      </c>
+      <c r="J78" t="s">
+        <v>689</v>
+      </c>
+      <c r="K78" t="s">
+        <v>690</v>
+      </c>
+      <c r="L78" t="s">
+        <v>691</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>692</v>
+      </c>
+      <c r="O78" t="s">
+        <v>575</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>693</v>
+      </c>
+      <c r="X78" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s">
+        <v>696</v>
+      </c>
+      <c r="G79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s">
+        <v>697</v>
+      </c>
+      <c r="J79" t="s">
+        <v>698</v>
+      </c>
+      <c r="K79" t="s">
+        <v>699</v>
+      </c>
+      <c r="L79" t="s">
+        <v>700</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>692</v>
+      </c>
+      <c r="O79" t="s">
+        <v>575</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>701</v>
+      </c>
+      <c r="X79" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s">
+        <v>704</v>
+      </c>
+      <c r="G80" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s">
+        <v>705</v>
+      </c>
+      <c r="J80" t="s">
+        <v>706</v>
+      </c>
+      <c r="K80" t="s">
+        <v>707</v>
+      </c>
+      <c r="L80" t="s">
+        <v>708</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>709</v>
+      </c>
+      <c r="O80" t="s">
+        <v>50</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s">
+        <v>711</v>
+      </c>
+      <c r="G81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s">
+        <v>712</v>
+      </c>
+      <c r="J81" t="s">
+        <v>713</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>714</v>
+      </c>
+      <c r="O81" t="s">
+        <v>57</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s">
+        <v>715</v>
+      </c>
+      <c r="G82" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s">
+        <v>716</v>
+      </c>
+      <c r="J82" t="s">
+        <v>717</v>
+      </c>
+      <c r="K82" t="s">
+        <v>718</v>
+      </c>
+      <c r="L82" t="s">
+        <v>719</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>720</v>
+      </c>
+      <c r="O82" t="s">
+        <v>84</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s">
+        <v>721</v>
+      </c>
+      <c r="G83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>722</v>
+      </c>
+      <c r="J83" t="s">
+        <v>723</v>
+      </c>
+      <c r="K83" t="s">
+        <v>724</v>
+      </c>
+      <c r="L83" t="s">
+        <v>725</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>726</v>
+      </c>
+      <c r="O83" t="s">
+        <v>50</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s">
+        <v>727</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s">
+        <v>728</v>
+      </c>
+      <c r="J84" t="s">
+        <v>729</v>
+      </c>
+      <c r="K84" t="s">
+        <v>730</v>
+      </c>
+      <c r="L84" t="s">
+        <v>731</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s">
+        <v>733</v>
+      </c>
+      <c r="G85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s">
+        <v>45</v>
+      </c>
+      <c r="I85" t="s">
+        <v>734</v>
+      </c>
+      <c r="J85" t="s">
+        <v>735</v>
+      </c>
+      <c r="K85" t="s">
+        <v>736</v>
+      </c>
+      <c r="L85" t="s">
+        <v>737</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>738</v>
+      </c>
+      <c r="O85" t="s">
+        <v>67</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s">
+        <v>739</v>
+      </c>
+      <c r="G86" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s">
+        <v>740</v>
+      </c>
+      <c r="J86" t="s">
+        <v>741</v>
+      </c>
+      <c r="K86" t="s">
+        <v>742</v>
+      </c>
+      <c r="L86" t="s">
+        <v>743</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>744</v>
+      </c>
+      <c r="O86" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s">
+        <v>745</v>
+      </c>
+      <c r="G87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s">
+        <v>746</v>
+      </c>
+      <c r="J87" t="s">
+        <v>747</v>
+      </c>
+      <c r="K87" t="s">
+        <v>748</v>
+      </c>
+      <c r="L87" t="s">
+        <v>749</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>738</v>
+      </c>
+      <c r="O87" t="s">
+        <v>575</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s">
+        <v>750</v>
+      </c>
+      <c r="G88" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s">
+        <v>751</v>
+      </c>
+      <c r="J88" t="s">
+        <v>752</v>
+      </c>
+      <c r="K88" t="s">
+        <v>753</v>
+      </c>
+      <c r="L88" t="s">
+        <v>754</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>755</v>
+      </c>
+      <c r="O88" t="s">
+        <v>57</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52120</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s">
+        <v>756</v>
+      </c>
+      <c r="G89" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" t="s">
+        <v>45</v>
+      </c>
+      <c r="I89" t="s">
+        <v>757</v>
+      </c>
+      <c r="J89" t="s">
+        <v>758</v>
+      </c>
+      <c r="K89" t="s">
+        <v>759</v>
+      </c>
+      <c r="L89" t="s">
+        <v>760</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>761</v>
+      </c>
+      <c r="O89" t="s">
+        <v>57</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>762</v>
       </c>
     </row>
   </sheetData>
